--- a/Sep19/pos_prof/Tables/individual_countries.xlsx
+++ b/Sep19/pos_prof/Tables/individual_countries.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="125">
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -743,15 +746,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -780,400 +783,439 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.4638803329537388</v>
       </c>
-      <c r="C2" t="s">
-        <v>122</v>
+      <c r="C2">
+        <v>3300031181</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.6205371966434521</v>
       </c>
       <c r="C3">
+        <v>2550835</v>
+      </c>
+      <c r="D3">
         <v>-0.0002407503471298938</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.003856070580811031</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.177110484270413e-05</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.002774048202428563</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.246854979777934e-05</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0002511604213462877</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.0002623427489888972</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.001255802106731439</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1.038985817918542</v>
       </c>
       <c r="C4">
+        <v>352205</v>
+      </c>
+      <c r="D4">
         <v>0.00180441737227513</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.008234588011364131</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.001343652514461169</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.005663492628251195</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.913208863849976e-05</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.0004109891751768167</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.0004956604431924988</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.002054945875884084</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.5446460905169289</v>
       </c>
       <c r="C5">
+        <v>2478635928</v>
+      </c>
+      <c r="D5">
         <v>0.009910808571948464</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.03784573407026402</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.005226523155250085</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.02399342974553242</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.003201095188741984</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.00455591218622742</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0160054759437099</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.02277956093113712</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.3718662846962684</v>
       </c>
       <c r="C6">
+        <v>685153617</v>
+      </c>
+      <c r="D6">
         <v>0.02077542838272161</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.01909293424417914</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.0151523104209166</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.01402199738898715</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.001869359834542791</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.001787760488333529</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.00934679917271395</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.008938802441667641</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1.078298440014149</v>
       </c>
       <c r="C7">
+        <v>2494829871</v>
+      </c>
+      <c r="D7">
         <v>0.03769037150874748</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.0441286943448931</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0613914892690133</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.06571680609405053</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.002437548228858535</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.002749800689107077</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.01218774114429268</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.01374900344553538</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.1054646367899041</v>
       </c>
-      <c r="C8" t="s">
-        <v>122</v>
+      <c r="C8">
+        <v>176188233</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0.08550529520849598</v>
       </c>
       <c r="C9">
+        <v>12453334</v>
+      </c>
+      <c r="D9">
         <v>-0.00142469980194349</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.001207608194900176</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.002010615758162818</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.0002422101722378769</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.0001322369623606908</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.0002599013664399392</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.0006611848118034532</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.001299506832199696</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0.0166705414399613</v>
       </c>
       <c r="C10">
+        <v>1276913415</v>
+      </c>
+      <c r="D10">
         <v>-0.9972940972861626</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-1.705433128864453</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.687539346334856</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-1.163272816945476</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.4200742238062593</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.4544182852079267</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-2.100371119031297</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-2.272091426039633</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0.3807937740264143</v>
       </c>
       <c r="C11">
+        <v>431316960</v>
+      </c>
+      <c r="D11">
         <v>-0.02147660199147677</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.01929418218576439</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.01565008661351353</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.01418391951609077</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.0003701154892388683</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.0004759607490949012</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.001850577446194349</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.002379803745474497</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0.1765509802813119</v>
       </c>
       <c r="C12">
+        <v>6445817668</v>
+      </c>
+      <c r="D12">
         <v>0.07978307805462483</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.0243816722976466</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.06454017253480038</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.02732106461649808</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.00937203429534475</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.006685119443588003</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.04686017147672372</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.03342559721794004</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0.08541399034785069</v>
       </c>
       <c r="C13">
+        <v>207567448</v>
+      </c>
+      <c r="D13">
         <v>0.0007793735160584758</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.02303612644503553</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.004193453327459973</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.01914571812753225</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.0008704496898466538</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.001949880783329625</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.004352248449233267</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.009749403916648122</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0.03195894343465661</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>223157878</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1196,3172 +1238,3472 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0.5435900323311412</v>
       </c>
       <c r="C15">
+        <v>17050125</v>
+      </c>
+      <c r="D15">
         <v>0.006548109764336392</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.01227566967327276</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.006683239745940284</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.01053106034627574</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.0004288866985018445</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.0007066678409362893</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.002144433492509222</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.003533339204681446</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>6.471261278245624</v>
       </c>
       <c r="C16">
+        <v>367614245</v>
+      </c>
+      <c r="D16">
         <v>0.08077968414866167</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.1316208263421322</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.08228518641628856</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.1164406727642174</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.004037795563761516</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.006503542022238445</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.02018897781880758</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.03251771011119222</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0.3305610002155921</v>
       </c>
-      <c r="C17" t="s">
-        <v>123</v>
+      <c r="C17">
+        <v>12152580</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0.1848601141168272</v>
       </c>
       <c r="C18">
+        <v>12202232</v>
+      </c>
+      <c r="D18">
         <v>0.0002084004236100515</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.002751022546207407</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.896955132087862e-05</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.001737123448922906</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>8.427515471186882e-05</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.000207589880218659</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.0004213757735593439</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.001037949401093295</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0.2732084640075076</v>
       </c>
       <c r="C19">
+        <v>17594992569</v>
+      </c>
+      <c r="D19">
         <v>0.0698782620473925</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.089340949681259</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.08289678040047771</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.09597196976665809</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.007674919821995013</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.008618841438134725</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.03837459910997508</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.04309420719067357</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0.1152854342222651</v>
       </c>
       <c r="C20">
+        <v>4252563902</v>
+      </c>
+      <c r="D20">
         <v>-0.0370919082053554</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.002163747453292163</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.02695875002012511</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.003493732000160745</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.002606508276460391</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.004300490452308789</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.01303254138230199</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.02150245226154395</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>0.2635720909729406</v>
       </c>
       <c r="C21">
+        <v>19083105379</v>
+      </c>
+      <c r="D21">
         <v>0.001760123214873981</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.01104414928380657</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.0005162088625614564</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.006753291901422972</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.0006182287193920624</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.001068495047256311</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.003091143596960316</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.005342475236281551</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0.6926113902235932</v>
       </c>
-      <c r="C22" t="s">
-        <v>123</v>
+      <c r="C22">
+        <v>1055406042</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>0.1696800597082566</v>
       </c>
       <c r="C23">
+        <v>797307487</v>
+      </c>
+      <c r="D23">
         <v>0.004634013381344882</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.2566492425484917</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-0.006393985581367407</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1629118629484103</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.00724093171309629</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.01946342774665216</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.03620465856548145</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.09731713873326074</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0.05140512758335535</v>
       </c>
-      <c r="C24" t="s">
-        <v>122</v>
+      <c r="C24">
+        <v>178546527</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0.01021498128951731</v>
       </c>
       <c r="C25">
+        <v>1523091385</v>
+      </c>
+      <c r="D25">
         <v>-0.1580352379426115</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.1586197448292723</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.1595328074842139</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.1599254838900988</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-0.03311237727464944</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.03314072529602661</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.1655618863732473</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.165703626480133</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>0.1657072661536193</v>
       </c>
       <c r="C26">
+        <v>942546574</v>
+      </c>
+      <c r="D26">
         <v>0.007222916940396342</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.04376081741283121</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.004235002350727367</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.02878145640203906</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.001551122261832569</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.003323175264639798</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.007755611309162843</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.01661587632319899</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0.3567911176518284</v>
       </c>
       <c r="C27">
+        <v>11109546045</v>
+      </c>
+      <c r="D27">
         <v>0.06350950984522286</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.06292753139592112</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.04620397144817186</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.0458129936667469</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.005363919466547963</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.005335694071948938</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.02681959733273981</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.0266784703597447</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>0.5233560154281636</v>
       </c>
       <c r="C28">
+        <v>980305398</v>
+      </c>
+      <c r="D28">
         <v>0.009892916860127219</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.01141891952431379</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.007645436089062327</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.008670616895685143</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.001672421489015106</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.00174643114935133</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.008362107445075531</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.008732155746756646</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0.1134284127311136</v>
       </c>
       <c r="C29">
+        <v>448576814</v>
+      </c>
+      <c r="D29">
         <v>-0.03423419246308512</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.05872235514634999</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.0312001268161136</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.03124882605639698</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.001984583695884305</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.006492886778218352</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.009922918479421533</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.03246443389109174</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>0.5868422406058135</v>
       </c>
-      <c r="C30" t="s">
-        <v>122</v>
+      <c r="C30">
+        <v>1219730603</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
         <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>4.507268197059778</v>
       </c>
       <c r="C31">
+        <v>23713515</v>
+      </c>
+      <c r="D31">
         <v>0.06824188525847709</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.1036303973289171</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.06539380185191893</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.08916808757303439</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.003558884122056503</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.005275192893728085</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.01779442061028252</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.02637596446864041</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0.2102643889941552</v>
       </c>
       <c r="C32">
+        <v>52655331</v>
+      </c>
+      <c r="D32">
         <v>-0.003918960853235884</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.03625725593880595</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-0.006813697295869842</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.02017700678646774</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.001251375960228919</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.003199883802420964</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.006256879801144584</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.01599941901210483</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>1.198105386173035</v>
       </c>
       <c r="C33">
+        <v>430613663</v>
+      </c>
+      <c r="D33">
         <v>0.009927850671085437</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.01907718399633866</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.01208152905875995</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.0182281244340989</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.0009234319717180204</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.001367165831164346</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.004617159858590104</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.006835829155821726</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>1.261330904214141</v>
       </c>
       <c r="C34">
+        <v>912033193</v>
+      </c>
+      <c r="D34">
         <v>0.05706526536609986</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.06096549767744512</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.04794280572526781</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.05056301301638197</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.003195014755943312</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.003384172268816259</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.01597507377971655</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.0169208613440813</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0.1270732915691374</v>
       </c>
       <c r="C35">
+        <v>851290902</v>
+      </c>
+      <c r="D35">
         <v>0.0006872931719901922</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.001942626437379898</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.0008440185326190275</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.001687361470213876</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.001353896793628145</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.001414779248659622</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.006769483968140722</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.007073896243298108</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0.182619173558908</v>
       </c>
       <c r="C36">
+        <v>18984874</v>
+      </c>
+      <c r="D36">
         <v>0.01106936566331238</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.05756151607710083</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.02439575199778294</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.05562955085110494</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.00142955904584142</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.003684383589191238</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.007147795229207103</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.0184219179459562</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0.4691004962934454</v>
       </c>
       <c r="C37">
+        <v>4795899326</v>
+      </c>
+      <c r="D37">
         <v>0.05237879720041477</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.05837196497030833</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.04297944448706682</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.04700570257478805</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.003880320287329675</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.004170983155355697</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.01940160143664835</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.02085491577677848</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0.1870761118100804</v>
       </c>
       <c r="C38">
+        <v>28719536872</v>
+      </c>
+      <c r="D38">
         <v>0.04597166062172157</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.05284435914849082</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.04570954231111955</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.05032667620262848</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.006060329792334267</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.006393649055463197</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.03030164896167134</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.031968245277316</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0.03179971778383467</v>
       </c>
       <c r="C39">
+        <v>31141377</v>
+      </c>
+      <c r="D39">
         <v>-0.00737744331447467</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>-0.005268618671193851</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-0.009860301029891523</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-0.008443575751776036</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.0004330274673286582</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.0005353034326468866</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.002165137336643287</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.002676517163234433</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0.4895231132881281</v>
       </c>
       <c r="C40">
+        <v>439637664</v>
+      </c>
+      <c r="D40">
         <v>-0.2564186501588219</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-0.3273637937045721</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>-0.04600443855485446</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-0.09366595395920202</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.01179068793280538</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.008349916760151878</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.05895343966402699</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.04174958380075945</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>0.3168591219452894</v>
       </c>
-      <c r="C41" t="s">
-        <v>123</v>
+      <c r="C41">
+        <v>276190398</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>2.534325418380812</v>
       </c>
       <c r="C42">
+        <v>29906307</v>
+      </c>
+      <c r="D42">
         <v>0.03559890602815972</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.08585702133897838</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.03112946345220456</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.0648932676727902</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.00188605524425962</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.004323525460129229</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.009430276221298096</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.02161762730064614</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0.2459453713445875</v>
       </c>
-      <c r="C43" t="s">
-        <v>122</v>
+      <c r="C43">
+        <v>74599310</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0.1631121327213523</v>
       </c>
       <c r="C44">
+        <v>9714415363</v>
+      </c>
+      <c r="D44">
         <v>0.02163150530315718</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>-0.01373470588939825</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>-0.007975992885939386</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>-0.03173529669875629</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>-0.01254037883872236</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>-0.01425560603928258</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>-0.06270189419361182</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-0.07127803019641291</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0.3527272633555201</v>
       </c>
       <c r="C45">
+        <v>143952893</v>
+      </c>
+      <c r="D45">
         <v>0.07301408849274101</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.5921942418347351</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.05540126482327033</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.4041906482739327</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.006402827194612134</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.03158256488703047</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.03201413597306068</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.1579128244351523</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0.2107511226836432</v>
       </c>
       <c r="C46">
+        <v>77213871</v>
+      </c>
+      <c r="D46">
         <v>-0.003490626521785991</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.01188292957190067</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>-0.004268841604891091</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.006059236455960747</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.0006854735307789421</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.00143107620327501</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.003427367653894707</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.007155381016375049</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0.2119778536923761</v>
       </c>
       <c r="C47">
+        <v>6030490241</v>
+      </c>
+      <c r="D47">
         <v>-0.2986773868736278</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>-0.2345188931036261</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>-0.3190808983506011</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>-0.2759787085979407</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.006271542777975166</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.009383167969096717</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.0313577138898759</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.04691583984548359</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0.294768796409911</v>
       </c>
       <c r="C48">
+        <v>3293646023</v>
+      </c>
+      <c r="D48">
         <v>-0.0121597922585629</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>-0.005398598622637</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>-0.005441377207528077</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>-0.0008991531943699242</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.0005266996974349184</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.0008546110806886611</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.002633498487174599</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.004273055403443302</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0.1363884680781818</v>
       </c>
       <c r="C49">
+        <v>31390539210</v>
+      </c>
+      <c r="D49">
         <v>-0.01625594297101377</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>-0.1979497191211252</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>-0.07435934034292989</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>-0.196422673758672</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>-0.07072401402118439</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>-0.07953598727238675</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-0.3536200701059222</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-0.3976799363619339</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0.2898440760060395</v>
       </c>
       <c r="C50">
+        <v>2482014026</v>
+      </c>
+      <c r="D50">
         <v>-0.02541576798944467</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>-0.01537012183345571</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>-0.02230174880571436</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>-0.01555300329501516</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.001652552759432053</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.002139756928409658</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.008262763797160263</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>0.01069878464204829</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0.3392858462128337</v>
       </c>
-      <c r="C51" t="s">
-        <v>122</v>
+      <c r="C51">
+        <v>12030857911</v>
       </c>
       <c r="D51" t="s">
         <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s">
         <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0.4538924418798343</v>
       </c>
       <c r="C52">
+        <v>3399820873</v>
+      </c>
+      <c r="D52">
         <v>0.03336181181430387</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.03486673411010467</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.02607896502177503</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.02708998386815176</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.002887280824092504</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.002960268106853244</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.01443640412046252</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.01480134053426622</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>0.1881317763475457</v>
       </c>
-      <c r="C53" t="s">
-        <v>123</v>
+      <c r="C53">
+        <v>89081267</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>0.2116892168852285</v>
       </c>
       <c r="C54">
+        <v>59665571</v>
+      </c>
+      <c r="D54">
         <v>-0.01454682754200186</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.09963806319905115</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>-0.01711423220898632</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.0595960915285211</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.000890984734981385</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>0.006428842025537805</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0.004454923674906928</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>0.03214421012768902</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>0.0521518084924196</v>
       </c>
       <c r="C55">
+        <v>228208366</v>
+      </c>
+      <c r="D55">
         <v>-0.02414658431846129</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>-0.02295093818424351</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>-0.01792554310514189</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>-0.01712229846010963</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.000787548312110121</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.0008455359987325074</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.003937741560550611</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>0.004227679993662543</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>0.2562328189538541</v>
       </c>
       <c r="C56">
+        <v>25952355940</v>
+      </c>
+      <c r="D56">
         <v>-0.01232453961121661</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>-0.01371388389105238</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>-0.01735630009404877</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>-0.01828967270400949</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.0013167999097981</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.001249418049560308</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.0065839995489905</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0.006247090247801533</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>2.613787747665656</v>
       </c>
       <c r="C57">
+        <v>19275331</v>
+      </c>
+      <c r="D57">
         <v>0.008794904874649637</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>0.01349781274423307</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.007689388089685257</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.01084883924685759</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.0005395661216422595</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0.0007676526264623249</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0.002697830608211299</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>0.003838263132311624</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>0.2387805447697462</v>
       </c>
       <c r="C58">
+        <v>26541819</v>
+      </c>
+      <c r="D58">
         <v>0.0004058935573211681</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>0.01410023170052281</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>0.004074175642783455</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.01327414164107125</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.0004347186479719798</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.00109888086622603</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.002173593239859897</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>0.005494404331130145</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>0.07143822361100609</v>
       </c>
       <c r="C59">
+        <v>66165643</v>
+      </c>
+      <c r="D59">
         <v>-0.7203626394917303</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>-0.4967451849497233</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>-0.5003650996903998</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>-0.3501371034997674</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>-0.1794751598014412</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>-0.1686299285024992</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-0.897375799007206</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-0.8431496425124969</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>0.3068939985094956</v>
       </c>
       <c r="C60">
+        <v>4403769577</v>
+      </c>
+      <c r="D60">
         <v>0.001676665807559349</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>0.003762413225218808</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>0.000385470734396916</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>0.001786692547589082</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.001019966060298388</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.00112112280238731</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.005099830301491932</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>0.005605614011936553</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0.3736880925013732</v>
       </c>
-      <c r="C61" t="s">
-        <v>122</v>
+      <c r="C61">
+        <v>513976024</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
         <v>123</v>
       </c>
       <c r="F61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>0.1428837294172986</v>
       </c>
-      <c r="C62" t="s">
-        <v>122</v>
+      <c r="C62">
+        <v>62190391</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G62" t="s">
         <v>123</v>
       </c>
       <c r="H62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>0.01908654605389848</v>
       </c>
       <c r="C63">
+        <v>55876008</v>
+      </c>
+      <c r="D63">
         <v>-0.399651657889975</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>-0.379551591957405</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>-0.3126486002393517</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>-0.2991452150293999</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>-0.09392181688195372</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>-0.09294698303184498</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-0.469609084409769</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>-0.4647349151592252</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>0.1877638499118782</v>
       </c>
       <c r="C64">
+        <v>66051756</v>
+      </c>
+      <c r="D64">
         <v>-0.0004858079177532321</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0.01330069047652222</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>-0.003615968609463229</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0.005645911383309477</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.0007299301458120166</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0.00139856204753291</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0.00364965072906009</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>0.006992810237664558</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>0.1157679105624186</v>
       </c>
       <c r="C65">
+        <v>121022414</v>
+      </c>
+      <c r="D65">
         <v>-0.00927257126202778</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>0.02509673136499284</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>-0.01276841935962078</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.01032115329785183</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.0009259380508216921</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0.002592816145542813</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0.004629690254108458</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>0.01296408072771407</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>0.03882925511546208</v>
       </c>
       <c r="C66">
+        <v>60399871</v>
+      </c>
+      <c r="D66">
         <v>-0.006470138112599569</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>-0.001972378520991138</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>-0.01064378891557193</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>-0.007622158013912587</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.0006937859802977906</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.0009119229911046293</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0.003468929901488953</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.004559614955523145</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>0.2114788631148144</v>
       </c>
       <c r="C67">
+        <v>193907426</v>
+      </c>
+      <c r="D67">
         <v>0.003132484141100937</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>0.04101775048160298</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.001274575314513657</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.02672620054269053</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.0007628224488820872</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.002600221399363284</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.003814112244410434</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.01300110699681642</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>0.4709552485333245</v>
       </c>
-      <c r="C68" t="s">
-        <v>123</v>
+      <c r="C68">
+        <v>7473364</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J68" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>0.0927937946339874</v>
       </c>
       <c r="C69">
+        <v>7282987</v>
+      </c>
+      <c r="D69">
         <v>0.003478361547230749</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>0.03856403045606384</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.00481014408458275</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>0.02838097734523876</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.000346266827414973</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>0.002047887997254857</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0.001731334137074866</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.01023943998627428</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0.2938881340975527</v>
       </c>
-      <c r="C70" t="s">
-        <v>123</v>
+      <c r="C70">
+        <v>25001023</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J70" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71">
         <v>0.005174931977624367</v>
       </c>
       <c r="C71">
+        <v>1528014481</v>
+      </c>
+      <c r="D71">
         <v>-0.1285393116108434</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>-0.06706144165558459</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>-0.05551396263705378</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>-0.01421263742358799</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>-0.05052091290228526</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>-0.04753929538590396</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>-0.2526045645114263</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>-0.2376964769295198</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72">
         <v>0.1223696320960522</v>
       </c>
       <c r="C72">
+        <v>133898237</v>
+      </c>
+      <c r="D72">
         <v>-0.01596553602979118</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>-0.03485827263192307</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>-0.03082554974111175</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>-0.04351784144127744</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>-0.01049745816230734</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>-0.01141373770202285</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>-0.05248729081153673</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>-0.05706868851011429</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>0.05989864754605726</v>
       </c>
       <c r="C73">
+        <v>2507667354</v>
+      </c>
+      <c r="D73">
         <v>-1.038204717714227</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>-1.074427851833234</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>-1.087001797194311</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>-1.111336788689444</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>-0.2309467095588183</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>-0.2327034966964672</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>-1.154733547794091</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>-1.163517483482337</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74">
         <v>0.4560688034870074</v>
       </c>
       <c r="C74">
+        <v>9844032119</v>
+      </c>
+      <c r="D74">
         <v>0.03680712485636112</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>0.1789488346856329</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>0.03058931533906666</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>0.1260812539558284</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>0.005575431819600472</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>0.01246916792567863</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>0.02787715909800234</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>0.06234583962839316</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75">
         <v>0.1449132329743426</v>
       </c>
       <c r="C75">
+        <v>3113577744</v>
+      </c>
+      <c r="D75">
         <v>0.004425166514329815</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>0.03382107552342239</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>0.006985854904769277</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.02673426191388569</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.002337646872717774</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0.003763320164184247</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0.01168823436358887</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>0.01881660082092122</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76">
         <v>1.644956220241079</v>
       </c>
       <c r="C76">
+        <v>3681039</v>
+      </c>
+      <c r="D76">
         <v>0.00170368709622375</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>0.007919305790598024</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>0.001111094516328728</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.005286796916006454</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.0001970991274628491</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0.0004985506512027044</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.0009854956373142459</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>0.002492753256013524</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77">
         <v>1.77626889548744</v>
       </c>
       <c r="C77">
+        <v>836401154</v>
+      </c>
+      <c r="D77">
         <v>0.007049400301289453</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>-0.006858222057026839</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>0.1546479673738101</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.1453047153323044</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>0.003201521240256164</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0.002527014942868989</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0.01600760620128083</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>0.01263507471434492</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78">
         <v>0.3602404008541973</v>
       </c>
-      <c r="C78" t="s">
-        <v>123</v>
+      <c r="C78">
+        <v>70998583</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J78" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79">
         <v>0.0813244501352182</v>
       </c>
       <c r="C79">
+        <v>37642596844</v>
+      </c>
+      <c r="D79">
         <v>-0.1475655093785765</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>-0.2238764628124058</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>-0.1746200799812716</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>-0.2258863894258561</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>-0.06302537020157581</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>-0.06672637798886008</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>-0.3151268510078791</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>-0.3336318899443005</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80">
         <v>1.120509505427408</v>
       </c>
       <c r="C80">
+        <v>1082383838</v>
+      </c>
+      <c r="D80">
         <v>0.02171086464368705</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>0.01705695025001803</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>0.03598320319637043</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>0.03285666624854777</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>0.002134898393070179</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>0.001909188024672553</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0.01067449196535089</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>0.009545940123362769</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81">
         <v>0.2769680603303864</v>
       </c>
       <c r="C81">
+        <v>910874325</v>
+      </c>
+      <c r="D81">
         <v>0.003639867121824014</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>0.008900522553215202</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>2.236248386381903e-05</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>0.003556512918255809</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>0.001554747820027648</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0.001809884544727081</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>0.007773739100138231</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>0.009049422723635401</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82">
         <v>0.07234454195091813</v>
       </c>
-      <c r="C82" t="s">
-        <v>123</v>
+      <c r="C82">
+        <v>881129416</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" t="s">
         <v>123</v>
       </c>
       <c r="F82" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83">
         <v>1.41044544263576</v>
       </c>
       <c r="C83">
+        <v>481912962</v>
+      </c>
+      <c r="D83">
         <v>0.02392904826904782</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>0.04361551322862701</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.05432600662714408</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>0.06755153139224743</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>0.002211940199863186</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0.003166714800899721</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.01105970099931593</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>0.01583357400449861</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>0.1787880268188615</v>
       </c>
-      <c r="C84" t="s">
-        <v>122</v>
+      <c r="C84">
+        <v>158402548</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
         <v>123</v>
       </c>
       <c r="F84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>0.2288659649874671</v>
       </c>
       <c r="C85">
+        <v>1929071577</v>
+      </c>
+      <c r="D85">
         <v>-0.008163640321546435</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>0.1310060453066603</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>-0.009282349680953504</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.08421295928419847</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>0.002076940440835613</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>0.008826536233928737</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0.01038470220417805</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>0.04413268116964367</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>0.3769365909702638</v>
       </c>
-      <c r="C86" t="s">
-        <v>122</v>
+      <c r="C86">
+        <v>428443080</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G86" t="s">
         <v>123</v>
       </c>
       <c r="H86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87">
         <v>0.1982935992218995</v>
       </c>
       <c r="C87">
+        <v>1974050436</v>
+      </c>
+      <c r="D87">
         <v>0.02257830945543698</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>0.09142128114892077</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>0.01919947284144947</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>0.06544873236594567</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>0.003088266205962201</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.006427084067257924</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0.01544133102981101</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>0.03213542033628961</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>0.01553378878135734</v>
       </c>
-      <c r="C88" t="s">
-        <v>122</v>
+      <c r="C88">
+        <v>38925940317</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>0.3474442448407433</v>
       </c>
       <c r="C89">
+        <v>281514486</v>
+      </c>
+      <c r="D89">
         <v>0.01719053015428396</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>0.03422370111468096</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>0.01330596301429092</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>0.02474898362908926</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>0.001291882389242103</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.002117974785286364</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>0.006459411946210521</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>0.01058987392643182</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90">
         <v>0.1657047711363369</v>
       </c>
       <c r="C90">
+        <v>90949759</v>
+      </c>
+      <c r="D90">
         <v>0.01081315064103889</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>0.006660159019433265</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>0.01111607421551927</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>0.008326061196239957</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>0.001252004740178353</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>0.001050588644055054</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>0.006260023700891769</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>0.005252943220275269</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>0.4278407161903409</v>
       </c>
       <c r="C91">
+        <v>1426132163</v>
+      </c>
+      <c r="D91">
         <v>-0.01661250301717304</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>-0.01728297528771128</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>-0.01323080969355626</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>-0.01368123833254884</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>0.000234465040313987</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>0.0002019477805660545</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0.001172325201569931</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>0.001009738902830269</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92">
         <v>0.2631583188033569</v>
       </c>
       <c r="C92">
+        <v>302335888</v>
+      </c>
+      <c r="D92">
         <v>0.01846586881091618</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>0.06592036379925392</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>0.01728456662092531</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>0.04916487626373628</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>0.001517386249450313</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>0.003818883578346523</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>0.007586931247251566</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>0.01909441789173261</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>3.037009127788569</v>
       </c>
       <c r="C93">
+        <v>2124611</v>
+      </c>
+      <c r="D93">
         <v>0.01133969247312411</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>0.04627386082525148</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>0.01144221473991483</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>0.03491126871369772</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>0.000567095062717537</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.002261368601386334</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>0.002835475313587685</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>0.01130684300693167</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <v>0.4012236469816403</v>
       </c>
       <c r="C94">
+        <v>1967677309</v>
+      </c>
+      <c r="D94">
         <v>0.005408369368339917</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>0.01760633562986634</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>0.005702639664897775</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0.01389733105347103</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>0.0006763147211760707</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.001267904343524141</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>0.003381573605880352</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>0.00633952171762071</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B95">
         <v>0.4191281043252832</v>
       </c>
       <c r="C95">
+        <v>753474801</v>
+      </c>
+      <c r="D95">
         <v>0.01367099031757072</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>0.03222308503729313</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>0.01836035373259214</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>0.0308237994890555</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>-0.005859917056218564</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>-0.004960158319909941</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>-0.02929958528109283</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>-0.02480079159954971</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>1.215566435947169</v>
       </c>
       <c r="C96">
+        <v>2191495466</v>
+      </c>
+      <c r="D96">
         <v>0.007193313906923599</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>0.00479449353291526</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>-0.0006770220150193009</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>-0.002288568746675877</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>0.002068442658981204</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.001952102179862445</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>0.010342213294906</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>0.009760510899312208</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>0.06238487249287841</v>
       </c>
       <c r="C97">
+        <v>29040590156</v>
+      </c>
+      <c r="D97">
         <v>-0.02436331757321751</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>-0.1468986271035062</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>-0.09288678409844282</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>-0.1752069860300686</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>-0.05378521714526378</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>-0.05972806170927687</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>-0.2689260857263191</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>-0.2986403085463846</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98">
         <v>0.1540733019247695</v>
       </c>
       <c r="C98">
+        <v>47613129</v>
+      </c>
+      <c r="D98">
         <v>0.01047156591176539</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>0.0217513425579032</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>0.009327586377460286</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>0.01690543063160304</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>0.001013603810055459</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0.001560662119874411</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>0.005068019050277293</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>0.007803310599372058</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>0.1361389850972489</v>
       </c>
       <c r="C99">
+        <v>415244002</v>
+      </c>
+      <c r="D99">
         <v>0.009415313540911839</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>0.07022672810605754</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>0.007740957117315012</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>0.04859455226421598</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>0.001992144547638743</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0.004941439619106227</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>0.009960722738193708</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>0.02470719809553113</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0.02200725380977351</v>
       </c>
       <c r="C100">
+        <v>67678367</v>
+      </c>
+      <c r="D100">
         <v>-0.0774391364079119</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>-0.07065237031419958</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>-0.08002091158232966</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>-0.07546150778730343</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>0.0007937732897829283</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>0.001122924912624155</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>0.00396886644891464</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>0.005614624563120776</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B101">
         <v>0.2294454729434642</v>
       </c>
       <c r="C101">
+        <v>336079832</v>
+      </c>
+      <c r="D101">
         <v>-0.008147175777991048</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>0.2201101435311567</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>-0.01216331579432572</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>0.1411817786925497</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>0.004498645277467075</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>0.01556890555144359</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>0.02249322638733538</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>0.07784452775721794</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0.005817303773967213</v>
       </c>
-      <c r="C102" t="s">
-        <v>122</v>
+      <c r="C102">
+        <v>120847250430</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0.1702710851104377</v>
       </c>
       <c r="C103">
+        <v>4676128460</v>
+      </c>
+      <c r="D103">
         <v>-0.007810005554718288</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>0.01046447321718641</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>-0.008144515241288822</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>0.004132425898901906</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>0.002375646260377273</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>0.003261940890440134</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>0.01187823130188634</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>0.0163097044522007</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0.2338423056782688</v>
       </c>
       <c r="C104">
+        <v>25517038</v>
+      </c>
+      <c r="D104">
         <v>0.008454070996340875</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>0.0669276062223295</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>0.004719562809654347</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>0.04400255189999156</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>0.0008837682041282136</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>0.003719678378007515</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>0.004418841020641068</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>0.01859839189003757</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105">
         <v>0.5210711135742035</v>
       </c>
       <c r="C105">
+        <v>554917587</v>
+      </c>
+      <c r="D105">
         <v>0.01204602985020327</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>0.01908457588973128</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>0.009108814650539159</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>0.01383736622885602</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>0.0009502885197717378</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>0.001291651227630451</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>0.004751442598858686</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>0.006458256138152254</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:11">
       <c r="A106" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106">
         <v>0.1802527304245044</v>
       </c>
-      <c r="C106" t="s">
-        <v>122</v>
+      <c r="C106">
+        <v>2818344176</v>
       </c>
       <c r="D106" t="s">
         <v>123</v>
       </c>
       <c r="E106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F106" t="s">
         <v>123</v>
       </c>
       <c r="G106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K106" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107">
         <v>0.2967113110764871</v>
       </c>
       <c r="C107">
+        <v>176375423</v>
+      </c>
+      <c r="D107">
         <v>0.006964735916924837</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>0.04526268995445259</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>0.003478651852977038</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>0.02920752397989746</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>0.001016201495156262</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.002873615401704453</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>0.005081007475781313</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>0.01436807700852226</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:11">
       <c r="A108" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108">
         <v>2.296491669346442</v>
       </c>
-      <c r="C108" t="s">
-        <v>123</v>
+      <c r="C108">
+        <v>3140810</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109">
         <v>0.2034671187804626</v>
       </c>
       <c r="C109">
+        <v>867852046303</v>
+      </c>
+      <c r="D109">
         <v>0.05713297586531789</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>0.01533217458579775</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>0.07431748429398018</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>0.04623537134690935</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>0.05011663234882424</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>0.04808933372275784</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>0.2505831617441214</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>0.2404466686137889</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:11">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B110">
         <v>0.03031723305851668</v>
       </c>
       <c r="C110">
+        <v>921603068</v>
+      </c>
+      <c r="D110">
         <v>-0.1024558210440719</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>-0.1044320348302436</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>-0.1127103040306716</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>-0.1140379402733295</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>0.002875493988954967</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>0.002779649522559951</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>0.01437746994477485</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>0.01389824761279979</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:11">
       <c r="A111" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B111">
         <v>0.176418937746618</v>
       </c>
       <c r="C111">
+        <v>591519943</v>
+      </c>
+      <c r="D111">
         <v>0.0006666855068151635</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>0.02861057683324377</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>-0.0004406439076176496</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>0.01833228599776937</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>0.0008615113656546905</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0.002216763197173428</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>0.004307556828273452</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>0.01108381598586713</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B112">
         <v>0.3322926075144546</v>
       </c>
       <c r="C112">
+        <v>1112087653</v>
+      </c>
+      <c r="D112">
         <v>0.02523679315436351</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>0.0494991097153091</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>0.01924777694560496</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>0.03554739544970951</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>0.00217927862732076</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>0.003355977626468754</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>0.01089639313660381</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>0.01677988813234377</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B113">
         <v>0.110305415721579</v>
       </c>
       <c r="C113">
+        <v>45277106</v>
+      </c>
+      <c r="D113">
         <v>-0.01601269340372389</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>0.03454445539727858</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>-0.01374975929886486</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>0.02021493801441883</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>0.001197973234631199</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>0.003649946286935537</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>0.005989866173155989</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>0.01824973143467769</v>
       </c>
     </row>

--- a/Sep19/pos_prof/Tables/individual_countries.xlsx
+++ b/Sep19/pos_prof/Tables/individual_countries.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -839,16 +839,16 @@
         <v>0.003856070580811031</v>
       </c>
       <c r="F3">
+        <v>4.354220968540874e-06</v>
+      </c>
+      <c r="G3">
+        <v>0.0005548096404857128</v>
+      </c>
+      <c r="H3">
         <v>2.177110484270413e-05</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.002774048202428563</v>
-      </c>
-      <c r="H3">
-        <v>5.246854979777934e-05</v>
-      </c>
-      <c r="I3">
-        <v>0.0002511604213462877</v>
       </c>
       <c r="J3">
         <v>0.0002623427489888972</v>
@@ -874,16 +874,16 @@
         <v>0.008234588011364131</v>
       </c>
       <c r="F4">
+        <v>0.0002687305028922338</v>
+      </c>
+      <c r="G4">
+        <v>0.001132698525650239</v>
+      </c>
+      <c r="H4">
         <v>0.001343652514461169</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.005663492628251195</v>
-      </c>
-      <c r="H4">
-        <v>9.913208863849976e-05</v>
-      </c>
-      <c r="I4">
-        <v>0.0004109891751768167</v>
       </c>
       <c r="J4">
         <v>0.0004956604431924988</v>
@@ -909,16 +909,16 @@
         <v>0.03784573407026402</v>
       </c>
       <c r="F5">
+        <v>0.001045304631050021</v>
+      </c>
+      <c r="G5">
+        <v>0.004798685949106487</v>
+      </c>
+      <c r="H5">
         <v>0.005226523155250085</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.02399342974553242</v>
-      </c>
-      <c r="H5">
-        <v>0.003201095188741984</v>
-      </c>
-      <c r="I5">
-        <v>0.00455591218622742</v>
       </c>
       <c r="J5">
         <v>0.0160054759437099</v>
@@ -944,16 +944,16 @@
         <v>0.01909293424417914</v>
       </c>
       <c r="F6">
+        <v>0.003030462084183319</v>
+      </c>
+      <c r="G6">
+        <v>0.002804399477797433</v>
+      </c>
+      <c r="H6">
         <v>0.0151523104209166</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.01402199738898715</v>
-      </c>
-      <c r="H6">
-        <v>0.001869359834542791</v>
-      </c>
-      <c r="I6">
-        <v>0.001787760488333529</v>
       </c>
       <c r="J6">
         <v>0.00934679917271395</v>
@@ -979,16 +979,16 @@
         <v>0.0441286943448931</v>
       </c>
       <c r="F7">
+        <v>0.01227829785380266</v>
+      </c>
+      <c r="G7">
+        <v>0.0131433612188101</v>
+      </c>
+      <c r="H7">
         <v>0.0613914892690133</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.06571680609405053</v>
-      </c>
-      <c r="H7">
-        <v>0.002437548228858535</v>
-      </c>
-      <c r="I7">
-        <v>0.002749800689107077</v>
       </c>
       <c r="J7">
         <v>0.01218774114429268</v>
@@ -1049,16 +1049,16 @@
         <v>0.001207608194900176</v>
       </c>
       <c r="F9">
+        <v>-0.0004021231516325628</v>
+      </c>
+      <c r="G9">
+        <v>-4.844203444757525e-05</v>
+      </c>
+      <c r="H9">
         <v>-0.002010615758162818</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-0.0002422101722378769</v>
-      </c>
-      <c r="H9">
-        <v>0.0001322369623606908</v>
-      </c>
-      <c r="I9">
-        <v>0.0002599013664399392</v>
       </c>
       <c r="J9">
         <v>0.0006611848118034532</v>
@@ -1084,16 +1084,16 @@
         <v>-1.705433128864453</v>
       </c>
       <c r="F10">
+        <v>-0.1375078692669713</v>
+      </c>
+      <c r="G10">
+        <v>-0.2326545633890953</v>
+      </c>
+      <c r="H10">
         <v>-0.687539346334856</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>-1.163272816945476</v>
-      </c>
-      <c r="H10">
-        <v>-0.4200742238062593</v>
-      </c>
-      <c r="I10">
-        <v>-0.4544182852079267</v>
       </c>
       <c r="J10">
         <v>-2.100371119031297</v>
@@ -1119,16 +1119,16 @@
         <v>-0.01929418218576439</v>
       </c>
       <c r="F11">
+        <v>-0.003130017322702706</v>
+      </c>
+      <c r="G11">
+        <v>-0.002836783903218153</v>
+      </c>
+      <c r="H11">
         <v>-0.01565008661351353</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-0.01418391951609077</v>
-      </c>
-      <c r="H11">
-        <v>0.0003701154892388683</v>
-      </c>
-      <c r="I11">
-        <v>0.0004759607490949012</v>
       </c>
       <c r="J11">
         <v>0.001850577446194349</v>
@@ -1154,16 +1154,16 @@
         <v>0.0243816722976466</v>
       </c>
       <c r="F12">
+        <v>0.01290803450696008</v>
+      </c>
+      <c r="G12">
+        <v>0.005464212923299617</v>
+      </c>
+      <c r="H12">
         <v>0.06454017253480038</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.02732106461649808</v>
-      </c>
-      <c r="H12">
-        <v>0.00937203429534475</v>
-      </c>
-      <c r="I12">
-        <v>0.006685119443588003</v>
       </c>
       <c r="J12">
         <v>0.04686017147672372</v>
@@ -1189,16 +1189,16 @@
         <v>0.02303612644503553</v>
       </c>
       <c r="F13">
+        <v>0.0008386906654919956</v>
+      </c>
+      <c r="G13">
+        <v>0.003829143625506452</v>
+      </c>
+      <c r="H13">
         <v>0.004193453327459973</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.01914571812753225</v>
-      </c>
-      <c r="H13">
-        <v>0.0008704496898466538</v>
-      </c>
-      <c r="I13">
-        <v>0.001949880783329625</v>
       </c>
       <c r="J13">
         <v>0.004352248449233267</v>
@@ -1259,16 +1259,16 @@
         <v>0.01227566967327276</v>
       </c>
       <c r="F15">
+        <v>0.001336647949188057</v>
+      </c>
+      <c r="G15">
+        <v>0.002106212069255149</v>
+      </c>
+      <c r="H15">
         <v>0.006683239745940284</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.01053106034627574</v>
-      </c>
-      <c r="H15">
-        <v>0.0004288866985018445</v>
-      </c>
-      <c r="I15">
-        <v>0.0007066678409362893</v>
       </c>
       <c r="J15">
         <v>0.002144433492509222</v>
@@ -1294,16 +1294,16 @@
         <v>0.1316208263421322</v>
       </c>
       <c r="F16">
+        <v>0.01645703728325772</v>
+      </c>
+      <c r="G16">
+        <v>0.02328813455284347</v>
+      </c>
+      <c r="H16">
         <v>0.08228518641628856</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.1164406727642174</v>
-      </c>
-      <c r="H16">
-        <v>0.004037795563761516</v>
-      </c>
-      <c r="I16">
-        <v>0.006503542022238445</v>
       </c>
       <c r="J16">
         <v>0.02018897781880758</v>
@@ -1364,16 +1364,16 @@
         <v>0.002751022546207407</v>
       </c>
       <c r="F18">
+        <v>5.793910264175817e-06</v>
+      </c>
+      <c r="G18">
+        <v>0.0003474246897845814</v>
+      </c>
+      <c r="H18">
         <v>2.896955132087862e-05</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.001737123448922906</v>
-      </c>
-      <c r="H18">
-        <v>8.427515471186882e-05</v>
-      </c>
-      <c r="I18">
-        <v>0.000207589880218659</v>
       </c>
       <c r="J18">
         <v>0.0004213757735593439</v>
@@ -1399,16 +1399,16 @@
         <v>0.089340949681259</v>
       </c>
       <c r="F19">
+        <v>0.01657935608009554</v>
+      </c>
+      <c r="G19">
+        <v>0.01919439395333161</v>
+      </c>
+      <c r="H19">
         <v>0.08289678040047771</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.09597196976665809</v>
-      </c>
-      <c r="H19">
-        <v>0.007674919821995013</v>
-      </c>
-      <c r="I19">
-        <v>0.008618841438134725</v>
       </c>
       <c r="J19">
         <v>0.03837459910997508</v>
@@ -1434,16 +1434,16 @@
         <v>-0.002163747453292163</v>
       </c>
       <c r="F20">
+        <v>-0.005391750004025021</v>
+      </c>
+      <c r="G20">
+        <v>-0.0006987464000321451</v>
+      </c>
+      <c r="H20">
         <v>-0.02695875002012511</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>-0.003493732000160745</v>
-      </c>
-      <c r="H20">
-        <v>0.002606508276460391</v>
-      </c>
-      <c r="I20">
-        <v>0.004300490452308789</v>
       </c>
       <c r="J20">
         <v>0.01303254138230199</v>
@@ -1469,16 +1469,16 @@
         <v>0.01104414928380657</v>
       </c>
       <c r="F21">
+        <v>0.0001032417725122917</v>
+      </c>
+      <c r="G21">
+        <v>0.001350658380284596</v>
+      </c>
+      <c r="H21">
         <v>0.0005162088625614564</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.006753291901422972</v>
-      </c>
-      <c r="H21">
-        <v>0.0006182287193920624</v>
-      </c>
-      <c r="I21">
-        <v>0.001068495047256311</v>
       </c>
       <c r="J21">
         <v>0.003091143596960316</v>
@@ -1539,16 +1539,16 @@
         <v>0.2566492425484917</v>
       </c>
       <c r="F23">
+        <v>-0.001278797116273486</v>
+      </c>
+      <c r="G23">
+        <v>0.03258237258968209</v>
+      </c>
+      <c r="H23">
         <v>-0.006393985581367407</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.1629118629484103</v>
-      </c>
-      <c r="H23">
-        <v>0.00724093171309629</v>
-      </c>
-      <c r="I23">
-        <v>0.01946342774665216</v>
       </c>
       <c r="J23">
         <v>0.03620465856548145</v>
@@ -1609,16 +1609,16 @@
         <v>-0.1586197448292723</v>
       </c>
       <c r="F25">
+        <v>-0.03190656149684279</v>
+      </c>
+      <c r="G25">
+        <v>-0.03198509677801977</v>
+      </c>
+      <c r="H25">
         <v>-0.1595328074842139</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>-0.1599254838900988</v>
-      </c>
-      <c r="H25">
-        <v>-0.03311237727464944</v>
-      </c>
-      <c r="I25">
-        <v>-0.03314072529602661</v>
       </c>
       <c r="J25">
         <v>-0.1655618863732473</v>
@@ -1644,16 +1644,16 @@
         <v>0.04376081741283121</v>
       </c>
       <c r="F26">
+        <v>0.000847000470145472</v>
+      </c>
+      <c r="G26">
+        <v>0.00575629128040781</v>
+      </c>
+      <c r="H26">
         <v>0.004235002350727367</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.02878145640203906</v>
-      </c>
-      <c r="H26">
-        <v>0.001551122261832569</v>
-      </c>
-      <c r="I26">
-        <v>0.003323175264639798</v>
       </c>
       <c r="J26">
         <v>0.007755611309162843</v>
@@ -1679,16 +1679,16 @@
         <v>0.06292753139592112</v>
       </c>
       <c r="F27">
+        <v>0.009240794289634386</v>
+      </c>
+      <c r="G27">
+        <v>0.009162598733349386</v>
+      </c>
+      <c r="H27">
         <v>0.04620397144817186</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.0458129936667469</v>
-      </c>
-      <c r="H27">
-        <v>0.005363919466547963</v>
-      </c>
-      <c r="I27">
-        <v>0.005335694071948938</v>
       </c>
       <c r="J27">
         <v>0.02681959733273981</v>
@@ -1714,16 +1714,16 @@
         <v>0.01141891952431379</v>
       </c>
       <c r="F28">
+        <v>0.001529087217812467</v>
+      </c>
+      <c r="G28">
+        <v>0.001734123379137032</v>
+      </c>
+      <c r="H28">
         <v>0.007645436089062327</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.008670616895685143</v>
-      </c>
-      <c r="H28">
-        <v>0.001672421489015106</v>
-      </c>
-      <c r="I28">
-        <v>0.00174643114935133</v>
       </c>
       <c r="J28">
         <v>0.008362107445075531</v>
@@ -1749,16 +1749,16 @@
         <v>0.05872235514634999</v>
       </c>
       <c r="F29">
+        <v>-0.006240025363222721</v>
+      </c>
+      <c r="G29">
+        <v>0.006249765211279399</v>
+      </c>
+      <c r="H29">
         <v>-0.0312001268161136</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.03124882605639698</v>
-      </c>
-      <c r="H29">
-        <v>0.001984583695884305</v>
-      </c>
-      <c r="I29">
-        <v>0.006492886778218352</v>
       </c>
       <c r="J29">
         <v>0.009922918479421533</v>
@@ -1790,10 +1790,10 @@
         <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J30" t="s">
         <v>124</v>
@@ -1819,16 +1819,16 @@
         <v>0.1036303973289171</v>
       </c>
       <c r="F31">
+        <v>0.01307876037038379</v>
+      </c>
+      <c r="G31">
+        <v>0.01783361751460688</v>
+      </c>
+      <c r="H31">
         <v>0.06539380185191893</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.08916808757303439</v>
-      </c>
-      <c r="H31">
-        <v>0.003558884122056503</v>
-      </c>
-      <c r="I31">
-        <v>0.005275192893728085</v>
       </c>
       <c r="J31">
         <v>0.01779442061028252</v>
@@ -1854,16 +1854,16 @@
         <v>0.03625725593880595</v>
       </c>
       <c r="F32">
+        <v>-0.001362739459173968</v>
+      </c>
+      <c r="G32">
+        <v>0.004035401357293547</v>
+      </c>
+      <c r="H32">
         <v>-0.006813697295869842</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.02017700678646774</v>
-      </c>
-      <c r="H32">
-        <v>0.001251375960228919</v>
-      </c>
-      <c r="I32">
-        <v>0.003199883802420964</v>
       </c>
       <c r="J32">
         <v>0.006256879801144584</v>
@@ -1889,16 +1889,16 @@
         <v>0.01907718399633866</v>
       </c>
       <c r="F33">
+        <v>0.002416305811751989</v>
+      </c>
+      <c r="G33">
+        <v>0.003645624886819779</v>
+      </c>
+      <c r="H33">
         <v>0.01208152905875995</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.0182281244340989</v>
-      </c>
-      <c r="H33">
-        <v>0.0009234319717180204</v>
-      </c>
-      <c r="I33">
-        <v>0.001367165831164346</v>
       </c>
       <c r="J33">
         <v>0.004617159858590104</v>
@@ -1924,16 +1924,16 @@
         <v>0.06096549767744512</v>
       </c>
       <c r="F34">
+        <v>0.009588561145053564</v>
+      </c>
+      <c r="G34">
+        <v>0.01011260260327639</v>
+      </c>
+      <c r="H34">
         <v>0.04794280572526781</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.05056301301638197</v>
-      </c>
-      <c r="H34">
-        <v>0.003195014755943312</v>
-      </c>
-      <c r="I34">
-        <v>0.003384172268816259</v>
       </c>
       <c r="J34">
         <v>0.01597507377971655</v>
@@ -1959,16 +1959,16 @@
         <v>0.001942626437379898</v>
       </c>
       <c r="F35">
+        <v>0.000168803706523804</v>
+      </c>
+      <c r="G35">
+        <v>0.0003374722940427737</v>
+      </c>
+      <c r="H35">
         <v>0.0008440185326190275</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.001687361470213876</v>
-      </c>
-      <c r="H35">
-        <v>0.001353896793628145</v>
-      </c>
-      <c r="I35">
-        <v>0.001414779248659622</v>
       </c>
       <c r="J35">
         <v>0.006769483968140722</v>
@@ -1994,16 +1994,16 @@
         <v>0.05756151607710083</v>
       </c>
       <c r="F36">
+        <v>0.004879150399556589</v>
+      </c>
+      <c r="G36">
+        <v>0.01112591017022099</v>
+      </c>
+      <c r="H36">
         <v>0.02439575199778294</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.05562955085110494</v>
-      </c>
-      <c r="H36">
-        <v>0.00142955904584142</v>
-      </c>
-      <c r="I36">
-        <v>0.003684383589191238</v>
       </c>
       <c r="J36">
         <v>0.007147795229207103</v>
@@ -2029,16 +2029,16 @@
         <v>0.05837196497030833</v>
       </c>
       <c r="F37">
+        <v>0.008595888897413362</v>
+      </c>
+      <c r="G37">
+        <v>0.009401140514957612</v>
+      </c>
+      <c r="H37">
         <v>0.04297944448706682</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.04700570257478805</v>
-      </c>
-      <c r="H37">
-        <v>0.003880320287329675</v>
-      </c>
-      <c r="I37">
-        <v>0.004170983155355697</v>
       </c>
       <c r="J37">
         <v>0.01940160143664835</v>
@@ -2064,16 +2064,16 @@
         <v>0.05284435914849082</v>
       </c>
       <c r="F38">
+        <v>0.009141908462223926</v>
+      </c>
+      <c r="G38">
+        <v>0.01006533524052571</v>
+      </c>
+      <c r="H38">
         <v>0.04570954231111955</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.05032667620262848</v>
-      </c>
-      <c r="H38">
-        <v>0.006060329792334267</v>
-      </c>
-      <c r="I38">
-        <v>0.006393649055463197</v>
       </c>
       <c r="J38">
         <v>0.03030164896167134</v>
@@ -2099,16 +2099,16 @@
         <v>-0.005268618671193851</v>
       </c>
       <c r="F39">
+        <v>-0.001972060205978302</v>
+      </c>
+      <c r="G39">
+        <v>-0.001688715150355205</v>
+      </c>
+      <c r="H39">
         <v>-0.009860301029891523</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>-0.008443575751776036</v>
-      </c>
-      <c r="H39">
-        <v>0.0004330274673286582</v>
-      </c>
-      <c r="I39">
-        <v>0.0005353034326468866</v>
       </c>
       <c r="J39">
         <v>0.002165137336643287</v>
@@ -2134,16 +2134,16 @@
         <v>-0.3273637937045721</v>
       </c>
       <c r="F40">
+        <v>-0.009200887710970877</v>
+      </c>
+      <c r="G40">
+        <v>-0.01873319079184037</v>
+      </c>
+      <c r="H40">
         <v>-0.04600443855485446</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>-0.09366595395920202</v>
-      </c>
-      <c r="H40">
-        <v>0.01179068793280538</v>
-      </c>
-      <c r="I40">
-        <v>0.008349916760151878</v>
       </c>
       <c r="J40">
         <v>0.05895343966402699</v>
@@ -2204,16 +2204,16 @@
         <v>0.08585702133897838</v>
       </c>
       <c r="F42">
+        <v>0.006225892690440911</v>
+      </c>
+      <c r="G42">
+        <v>0.01297865353455804</v>
+      </c>
+      <c r="H42">
         <v>0.03112946345220456</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>0.0648932676727902</v>
-      </c>
-      <c r="H42">
-        <v>0.00188605524425962</v>
-      </c>
-      <c r="I42">
-        <v>0.004323525460129229</v>
       </c>
       <c r="J42">
         <v>0.009430276221298096</v>
@@ -2274,16 +2274,16 @@
         <v>-0.01373470588939825</v>
       </c>
       <c r="F44">
+        <v>-0.001595198577187866</v>
+      </c>
+      <c r="G44">
+        <v>-0.006347059339751261</v>
+      </c>
+      <c r="H44">
         <v>-0.007975992885939386</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>-0.03173529669875629</v>
-      </c>
-      <c r="H44">
-        <v>-0.01254037883872236</v>
-      </c>
-      <c r="I44">
-        <v>-0.01425560603928258</v>
       </c>
       <c r="J44">
         <v>-0.06270189419361182</v>
@@ -2309,16 +2309,16 @@
         <v>0.5921942418347351</v>
       </c>
       <c r="F45">
+        <v>0.01108025296465407</v>
+      </c>
+      <c r="G45">
+        <v>0.08083812965478654</v>
+      </c>
+      <c r="H45">
         <v>0.05540126482327033</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>0.4041906482739327</v>
-      </c>
-      <c r="H45">
-        <v>0.006402827194612134</v>
-      </c>
-      <c r="I45">
-        <v>0.03158256488703047</v>
       </c>
       <c r="J45">
         <v>0.03201413597306068</v>
@@ -2344,16 +2344,16 @@
         <v>0.01188292957190067</v>
       </c>
       <c r="F46">
+        <v>-0.0008537683209782175</v>
+      </c>
+      <c r="G46">
+        <v>0.001211847291192149</v>
+      </c>
+      <c r="H46">
         <v>-0.004268841604891091</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>0.006059236455960747</v>
-      </c>
-      <c r="H46">
-        <v>0.0006854735307789421</v>
-      </c>
-      <c r="I46">
-        <v>0.00143107620327501</v>
       </c>
       <c r="J46">
         <v>0.003427367653894707</v>
@@ -2379,16 +2379,16 @@
         <v>-0.2345188931036261</v>
       </c>
       <c r="F47">
+        <v>-0.06381617967012021</v>
+      </c>
+      <c r="G47">
+        <v>-0.05519574171958812</v>
+      </c>
+      <c r="H47">
         <v>-0.3190808983506011</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>-0.2759787085979407</v>
-      </c>
-      <c r="H47">
-        <v>0.006271542777975166</v>
-      </c>
-      <c r="I47">
-        <v>0.009383167969096717</v>
       </c>
       <c r="J47">
         <v>0.0313577138898759</v>
@@ -2414,16 +2414,16 @@
         <v>-0.005398598622637</v>
       </c>
       <c r="F48">
+        <v>-0.001088275441505617</v>
+      </c>
+      <c r="G48">
+        <v>-0.0001798306388739869</v>
+      </c>
+      <c r="H48">
         <v>-0.005441377207528077</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>-0.0008991531943699242</v>
-      </c>
-      <c r="H48">
-        <v>0.0005266996974349184</v>
-      </c>
-      <c r="I48">
-        <v>0.0008546110806886611</v>
       </c>
       <c r="J48">
         <v>0.002633498487174599</v>
@@ -2449,16 +2449,16 @@
         <v>-0.1979497191211252</v>
       </c>
       <c r="F49">
+        <v>-0.01487186806858594</v>
+      </c>
+      <c r="G49">
+        <v>-0.03928453475173437</v>
+      </c>
+      <c r="H49">
         <v>-0.07435934034292989</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>-0.196422673758672</v>
-      </c>
-      <c r="H49">
-        <v>-0.07072401402118439</v>
-      </c>
-      <c r="I49">
-        <v>-0.07953598727238675</v>
       </c>
       <c r="J49">
         <v>-0.3536200701059222</v>
@@ -2484,16 +2484,16 @@
         <v>-0.01537012183345571</v>
       </c>
       <c r="F50">
+        <v>-0.004460349761142865</v>
+      </c>
+      <c r="G50">
+        <v>-0.003110600659003034</v>
+      </c>
+      <c r="H50">
         <v>-0.02230174880571436</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>-0.01555300329501516</v>
-      </c>
-      <c r="H50">
-        <v>0.001652552759432053</v>
-      </c>
-      <c r="I50">
-        <v>0.002139756928409658</v>
       </c>
       <c r="J50">
         <v>0.008262763797160263</v>
@@ -2525,7 +2525,7 @@
         <v>124</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I51" t="s">
         <v>124</v>
@@ -2554,16 +2554,16 @@
         <v>0.03486673411010467</v>
       </c>
       <c r="F52">
+        <v>0.005215793004355008</v>
+      </c>
+      <c r="G52">
+        <v>0.00541799677363035</v>
+      </c>
+      <c r="H52">
         <v>0.02607896502177503</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>0.02708998386815176</v>
-      </c>
-      <c r="H52">
-        <v>0.002887280824092504</v>
-      </c>
-      <c r="I52">
-        <v>0.002960268106853244</v>
       </c>
       <c r="J52">
         <v>0.01443640412046252</v>
@@ -2595,10 +2595,10 @@
         <v>124</v>
       </c>
       <c r="H53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J53" t="s">
         <v>123</v>
@@ -2624,16 +2624,16 @@
         <v>0.09963806319905115</v>
       </c>
       <c r="F54">
+        <v>-0.003422846441797259</v>
+      </c>
+      <c r="G54">
+        <v>0.01191921830570422</v>
+      </c>
+      <c r="H54">
         <v>-0.01711423220898632</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>0.0595960915285211</v>
-      </c>
-      <c r="H54">
-        <v>0.000890984734981385</v>
-      </c>
-      <c r="I54">
-        <v>0.006428842025537805</v>
       </c>
       <c r="J54">
         <v>0.004454923674906928</v>
@@ -2659,16 +2659,16 @@
         <v>-0.02295093818424351</v>
       </c>
       <c r="F55">
+        <v>-0.003585108621028379</v>
+      </c>
+      <c r="G55">
+        <v>-0.003424459692021923</v>
+      </c>
+      <c r="H55">
         <v>-0.01792554310514189</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>-0.01712229846010963</v>
-      </c>
-      <c r="H55">
-        <v>0.000787548312110121</v>
-      </c>
-      <c r="I55">
-        <v>0.0008455359987325074</v>
       </c>
       <c r="J55">
         <v>0.003937741560550611</v>
@@ -2694,16 +2694,16 @@
         <v>-0.01371388389105238</v>
       </c>
       <c r="F56">
+        <v>-0.003471260018809754</v>
+      </c>
+      <c r="G56">
+        <v>-0.0036579345408019</v>
+      </c>
+      <c r="H56">
         <v>-0.01735630009404877</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>-0.01828967270400949</v>
-      </c>
-      <c r="H56">
-        <v>0.0013167999097981</v>
-      </c>
-      <c r="I56">
-        <v>0.001249418049560308</v>
       </c>
       <c r="J56">
         <v>0.0065839995489905</v>
@@ -2729,16 +2729,16 @@
         <v>0.01349781274423307</v>
       </c>
       <c r="F57">
+        <v>0.001537877617937051</v>
+      </c>
+      <c r="G57">
+        <v>0.002169767849371519</v>
+      </c>
+      <c r="H57">
         <v>0.007689388089685257</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>0.01084883924685759</v>
-      </c>
-      <c r="H57">
-        <v>0.0005395661216422595</v>
-      </c>
-      <c r="I57">
-        <v>0.0007676526264623249</v>
       </c>
       <c r="J57">
         <v>0.002697830608211299</v>
@@ -2764,16 +2764,16 @@
         <v>0.01410023170052281</v>
       </c>
       <c r="F58">
+        <v>0.0008148351285566907</v>
+      </c>
+      <c r="G58">
+        <v>0.002654828328214251</v>
+      </c>
+      <c r="H58">
         <v>0.004074175642783455</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>0.01327414164107125</v>
-      </c>
-      <c r="H58">
-        <v>0.0004347186479719798</v>
-      </c>
-      <c r="I58">
-        <v>0.00109888086622603</v>
       </c>
       <c r="J58">
         <v>0.002173593239859897</v>
@@ -2799,16 +2799,16 @@
         <v>-0.4967451849497233</v>
       </c>
       <c r="F59">
+        <v>-0.1000730199380799</v>
+      </c>
+      <c r="G59">
+        <v>-0.07002742069995341</v>
+      </c>
+      <c r="H59">
         <v>-0.5003650996903998</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>-0.3501371034997674</v>
-      </c>
-      <c r="H59">
-        <v>-0.1794751598014412</v>
-      </c>
-      <c r="I59">
-        <v>-0.1686299285024992</v>
       </c>
       <c r="J59">
         <v>-0.897375799007206</v>
@@ -2834,16 +2834,16 @@
         <v>0.003762413225218808</v>
       </c>
       <c r="F60">
+        <v>7.70941468793832e-05</v>
+      </c>
+      <c r="G60">
+        <v>0.0003573385095178146</v>
+      </c>
+      <c r="H60">
         <v>0.000385470734396916</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0.001786692547589082</v>
-      </c>
-      <c r="H60">
-        <v>0.001019966060298388</v>
-      </c>
-      <c r="I60">
-        <v>0.00112112280238731</v>
       </c>
       <c r="J60">
         <v>0.005099830301491932</v>
@@ -2910,10 +2910,10 @@
         <v>123</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J62" t="s">
         <v>124</v>
@@ -2939,16 +2939,16 @@
         <v>-0.379551591957405</v>
       </c>
       <c r="F63">
+        <v>-0.06252972004787037</v>
+      </c>
+      <c r="G63">
+        <v>-0.05982904300588002</v>
+      </c>
+      <c r="H63">
         <v>-0.3126486002393517</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>-0.2991452150293999</v>
-      </c>
-      <c r="H63">
-        <v>-0.09392181688195372</v>
-      </c>
-      <c r="I63">
-        <v>-0.09294698303184498</v>
       </c>
       <c r="J63">
         <v>-0.469609084409769</v>
@@ -2974,16 +2974,16 @@
         <v>0.01330069047652222</v>
       </c>
       <c r="F64">
+        <v>-0.0007231937218926453</v>
+      </c>
+      <c r="G64">
+        <v>0.001129182276661897</v>
+      </c>
+      <c r="H64">
         <v>-0.003615968609463229</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>0.005645911383309477</v>
-      </c>
-      <c r="H64">
-        <v>0.0007299301458120166</v>
-      </c>
-      <c r="I64">
-        <v>0.00139856204753291</v>
       </c>
       <c r="J64">
         <v>0.00364965072906009</v>
@@ -3009,16 +3009,16 @@
         <v>0.02509673136499284</v>
       </c>
       <c r="F65">
+        <v>-0.002553683871924156</v>
+      </c>
+      <c r="G65">
+        <v>0.002064230659570367</v>
+      </c>
+      <c r="H65">
         <v>-0.01276841935962078</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>0.01032115329785183</v>
-      </c>
-      <c r="H65">
-        <v>0.0009259380508216921</v>
-      </c>
-      <c r="I65">
-        <v>0.002592816145542813</v>
       </c>
       <c r="J65">
         <v>0.004629690254108458</v>
@@ -3044,16 +3044,16 @@
         <v>-0.001972378520991138</v>
       </c>
       <c r="F66">
+        <v>-0.002128757783114385</v>
+      </c>
+      <c r="G66">
+        <v>-0.001524431602782514</v>
+      </c>
+      <c r="H66">
         <v>-0.01064378891557193</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>-0.007622158013912587</v>
-      </c>
-      <c r="H66">
-        <v>0.0006937859802977906</v>
-      </c>
-      <c r="I66">
-        <v>0.0009119229911046293</v>
       </c>
       <c r="J66">
         <v>0.003468929901488953</v>
@@ -3079,16 +3079,16 @@
         <v>0.04101775048160298</v>
       </c>
       <c r="F67">
+        <v>0.0002549150629027302</v>
+      </c>
+      <c r="G67">
+        <v>0.005345240108538106</v>
+      </c>
+      <c r="H67">
         <v>0.001274575314513657</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>0.02672620054269053</v>
-      </c>
-      <c r="H67">
-        <v>0.0007628224488820872</v>
-      </c>
-      <c r="I67">
-        <v>0.002600221399363284</v>
       </c>
       <c r="J67">
         <v>0.003814112244410434</v>
@@ -3120,10 +3120,10 @@
         <v>124</v>
       </c>
       <c r="H68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J68" t="s">
         <v>123</v>
@@ -3149,16 +3149,16 @@
         <v>0.03856403045606384</v>
       </c>
       <c r="F69">
+        <v>0.0009620288169165497</v>
+      </c>
+      <c r="G69">
+        <v>0.00567619546904775</v>
+      </c>
+      <c r="H69">
         <v>0.00481014408458275</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>0.02838097734523876</v>
-      </c>
-      <c r="H69">
-        <v>0.000346266827414973</v>
-      </c>
-      <c r="I69">
-        <v>0.002047887997254857</v>
       </c>
       <c r="J69">
         <v>0.001731334137074866</v>
@@ -3219,16 +3219,16 @@
         <v>-0.06706144165558459</v>
       </c>
       <c r="F71">
+        <v>-0.01110279252741071</v>
+      </c>
+      <c r="G71">
+        <v>-0.002842527484717598</v>
+      </c>
+      <c r="H71">
         <v>-0.05551396263705378</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>-0.01421263742358799</v>
-      </c>
-      <c r="H71">
-        <v>-0.05052091290228526</v>
-      </c>
-      <c r="I71">
-        <v>-0.04753929538590396</v>
       </c>
       <c r="J71">
         <v>-0.2526045645114263</v>
@@ -3254,16 +3254,16 @@
         <v>-0.03485827263192307</v>
       </c>
       <c r="F72">
+        <v>-0.006165109948222345</v>
+      </c>
+      <c r="G72">
+        <v>-0.008703568288255482</v>
+      </c>
+      <c r="H72">
         <v>-0.03082554974111175</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>-0.04351784144127744</v>
-      </c>
-      <c r="H72">
-        <v>-0.01049745816230734</v>
-      </c>
-      <c r="I72">
-        <v>-0.01141373770202285</v>
       </c>
       <c r="J72">
         <v>-0.05248729081153673</v>
@@ -3289,16 +3289,16 @@
         <v>-1.074427851833234</v>
       </c>
       <c r="F73">
+        <v>-0.2174003594388621</v>
+      </c>
+      <c r="G73">
+        <v>-0.2222673577378887</v>
+      </c>
+      <c r="H73">
         <v>-1.087001797194311</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>-1.111336788689444</v>
-      </c>
-      <c r="H73">
-        <v>-0.2309467095588183</v>
-      </c>
-      <c r="I73">
-        <v>-0.2327034966964672</v>
       </c>
       <c r="J73">
         <v>-1.154733547794091</v>
@@ -3324,16 +3324,16 @@
         <v>0.1789488346856329</v>
       </c>
       <c r="F74">
+        <v>0.006117863067813328</v>
+      </c>
+      <c r="G74">
+        <v>0.02521625079116567</v>
+      </c>
+      <c r="H74">
         <v>0.03058931533906666</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>0.1260812539558284</v>
-      </c>
-      <c r="H74">
-        <v>0.005575431819600472</v>
-      </c>
-      <c r="I74">
-        <v>0.01246916792567863</v>
       </c>
       <c r="J74">
         <v>0.02787715909800234</v>
@@ -3359,16 +3359,16 @@
         <v>0.03382107552342239</v>
       </c>
       <c r="F75">
+        <v>0.001397170980953853</v>
+      </c>
+      <c r="G75">
+        <v>0.005346852382777136</v>
+      </c>
+      <c r="H75">
         <v>0.006985854904769277</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>0.02673426191388569</v>
-      </c>
-      <c r="H75">
-        <v>0.002337646872717774</v>
-      </c>
-      <c r="I75">
-        <v>0.003763320164184247</v>
       </c>
       <c r="J75">
         <v>0.01168823436358887</v>
@@ -3394,16 +3394,16 @@
         <v>0.007919305790598024</v>
       </c>
       <c r="F76">
+        <v>0.0002222189032657457</v>
+      </c>
+      <c r="G76">
+        <v>0.001057359383201291</v>
+      </c>
+      <c r="H76">
         <v>0.001111094516328728</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>0.005286796916006454</v>
-      </c>
-      <c r="H76">
-        <v>0.0001970991274628491</v>
-      </c>
-      <c r="I76">
-        <v>0.0004985506512027044</v>
       </c>
       <c r="J76">
         <v>0.0009854956373142459</v>
@@ -3429,16 +3429,16 @@
         <v>-0.006858222057026839</v>
       </c>
       <c r="F77">
+        <v>0.03092959347476199</v>
+      </c>
+      <c r="G77">
+        <v>0.02906094306646087</v>
+      </c>
+      <c r="H77">
         <v>0.1546479673738101</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>0.1453047153323044</v>
-      </c>
-      <c r="H77">
-        <v>0.003201521240256164</v>
-      </c>
-      <c r="I77">
-        <v>0.002527014942868989</v>
       </c>
       <c r="J77">
         <v>0.01600760620128083</v>
@@ -3499,16 +3499,16 @@
         <v>-0.2238764628124058</v>
       </c>
       <c r="F79">
+        <v>-0.03492401599625428</v>
+      </c>
+      <c r="G79">
+        <v>-0.04517727788517119</v>
+      </c>
+      <c r="H79">
         <v>-0.1746200799812716</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>-0.2258863894258561</v>
-      </c>
-      <c r="H79">
-        <v>-0.06302537020157581</v>
-      </c>
-      <c r="I79">
-        <v>-0.06672637798886008</v>
       </c>
       <c r="J79">
         <v>-0.3151268510078791</v>
@@ -3534,16 +3534,16 @@
         <v>0.01705695025001803</v>
       </c>
       <c r="F80">
+        <v>0.007196640639274081</v>
+      </c>
+      <c r="G80">
+        <v>0.006571333249709549</v>
+      </c>
+      <c r="H80">
         <v>0.03598320319637043</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>0.03285666624854777</v>
-      </c>
-      <c r="H80">
-        <v>0.002134898393070179</v>
-      </c>
-      <c r="I80">
-        <v>0.001909188024672553</v>
       </c>
       <c r="J80">
         <v>0.01067449196535089</v>
@@ -3569,16 +3569,16 @@
         <v>0.008900522553215202</v>
       </c>
       <c r="F81">
+        <v>4.472496772767526e-06</v>
+      </c>
+      <c r="G81">
+        <v>0.0007113025836511627</v>
+      </c>
+      <c r="H81">
         <v>2.236248386381903e-05</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>0.003556512918255809</v>
-      </c>
-      <c r="H81">
-        <v>0.001554747820027648</v>
-      </c>
-      <c r="I81">
-        <v>0.001809884544727081</v>
       </c>
       <c r="J81">
         <v>0.007773739100138231</v>
@@ -3610,7 +3610,7 @@
         <v>123</v>
       </c>
       <c r="H82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
         <v>123</v>
@@ -3639,16 +3639,16 @@
         <v>0.04361551322862701</v>
       </c>
       <c r="F83">
+        <v>0.01086520132542882</v>
+      </c>
+      <c r="G83">
+        <v>0.01351030627844949</v>
+      </c>
+      <c r="H83">
         <v>0.05432600662714408</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>0.06755153139224743</v>
-      </c>
-      <c r="H83">
-        <v>0.002211940199863186</v>
-      </c>
-      <c r="I83">
-        <v>0.003166714800899721</v>
       </c>
       <c r="J83">
         <v>0.01105970099931593</v>
@@ -3709,16 +3709,16 @@
         <v>0.1310060453066603</v>
       </c>
       <c r="F85">
+        <v>-0.001856469936190703</v>
+      </c>
+      <c r="G85">
+        <v>0.01684259185683969</v>
+      </c>
+      <c r="H85">
         <v>-0.009282349680953504</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>0.08421295928419847</v>
-      </c>
-      <c r="H85">
-        <v>0.002076940440835613</v>
-      </c>
-      <c r="I85">
-        <v>0.008826536233928737</v>
       </c>
       <c r="J85">
         <v>0.01038470220417805</v>
@@ -3750,10 +3750,10 @@
         <v>123</v>
       </c>
       <c r="H86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J86" t="s">
         <v>124</v>
@@ -3779,16 +3779,16 @@
         <v>0.09142128114892077</v>
       </c>
       <c r="F87">
+        <v>0.003839894568289895</v>
+      </c>
+      <c r="G87">
+        <v>0.01308974647318913</v>
+      </c>
+      <c r="H87">
         <v>0.01919947284144947</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>0.06544873236594567</v>
-      </c>
-      <c r="H87">
-        <v>0.003088266205962201</v>
-      </c>
-      <c r="I87">
-        <v>0.006427084067257924</v>
       </c>
       <c r="J87">
         <v>0.01544133102981101</v>
@@ -3849,16 +3849,16 @@
         <v>0.03422370111468096</v>
       </c>
       <c r="F89">
+        <v>0.002661192602858183</v>
+      </c>
+      <c r="G89">
+        <v>0.004949796725817849</v>
+      </c>
+      <c r="H89">
         <v>0.01330596301429092</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>0.02474898362908926</v>
-      </c>
-      <c r="H89">
-        <v>0.001291882389242103</v>
-      </c>
-      <c r="I89">
-        <v>0.002117974785286364</v>
       </c>
       <c r="J89">
         <v>0.006459411946210521</v>
@@ -3884,16 +3884,16 @@
         <v>0.006660159019433265</v>
       </c>
       <c r="F90">
+        <v>0.002223214843103852</v>
+      </c>
+      <c r="G90">
+        <v>0.001665212239247991</v>
+      </c>
+      <c r="H90">
         <v>0.01111607421551927</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>0.008326061196239957</v>
-      </c>
-      <c r="H90">
-        <v>0.001252004740178353</v>
-      </c>
-      <c r="I90">
-        <v>0.001050588644055054</v>
       </c>
       <c r="J90">
         <v>0.006260023700891769</v>
@@ -3919,16 +3919,16 @@
         <v>-0.01728297528771128</v>
       </c>
       <c r="F91">
+        <v>-0.002646161938711254</v>
+      </c>
+      <c r="G91">
+        <v>-0.002736247666509769</v>
+      </c>
+      <c r="H91">
         <v>-0.01323080969355626</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>-0.01368123833254884</v>
-      </c>
-      <c r="H91">
-        <v>0.000234465040313987</v>
-      </c>
-      <c r="I91">
-        <v>0.0002019477805660545</v>
       </c>
       <c r="J91">
         <v>0.001172325201569931</v>
@@ -3954,16 +3954,16 @@
         <v>0.06592036379925392</v>
       </c>
       <c r="F92">
+        <v>0.003456913324185062</v>
+      </c>
+      <c r="G92">
+        <v>0.009832975252747256</v>
+      </c>
+      <c r="H92">
         <v>0.01728456662092531</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>0.04916487626373628</v>
-      </c>
-      <c r="H92">
-        <v>0.001517386249450313</v>
-      </c>
-      <c r="I92">
-        <v>0.003818883578346523</v>
       </c>
       <c r="J92">
         <v>0.007586931247251566</v>
@@ -3989,16 +3989,16 @@
         <v>0.04627386082525148</v>
       </c>
       <c r="F93">
+        <v>0.002288442947982965</v>
+      </c>
+      <c r="G93">
+        <v>0.006982253742739545</v>
+      </c>
+      <c r="H93">
         <v>0.01144221473991483</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>0.03491126871369772</v>
-      </c>
-      <c r="H93">
-        <v>0.000567095062717537</v>
-      </c>
-      <c r="I93">
-        <v>0.002261368601386334</v>
       </c>
       <c r="J93">
         <v>0.002835475313587685</v>
@@ -4024,16 +4024,16 @@
         <v>0.01760633562986634</v>
       </c>
       <c r="F94">
+        <v>0.001140527932979554</v>
+      </c>
+      <c r="G94">
+        <v>0.002779466210694205</v>
+      </c>
+      <c r="H94">
         <v>0.005702639664897775</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>0.01389733105347103</v>
-      </c>
-      <c r="H94">
-        <v>0.0006763147211760707</v>
-      </c>
-      <c r="I94">
-        <v>0.001267904343524141</v>
       </c>
       <c r="J94">
         <v>0.003381573605880352</v>
@@ -4059,16 +4059,16 @@
         <v>0.03222308503729313</v>
       </c>
       <c r="F95">
+        <v>0.003672070746518427</v>
+      </c>
+      <c r="G95">
+        <v>0.006164759897811098</v>
+      </c>
+      <c r="H95">
         <v>0.01836035373259214</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>0.0308237994890555</v>
-      </c>
-      <c r="H95">
-        <v>-0.005859917056218564</v>
-      </c>
-      <c r="I95">
-        <v>-0.004960158319909941</v>
       </c>
       <c r="J95">
         <v>-0.02929958528109283</v>
@@ -4094,16 +4094,16 @@
         <v>0.00479449353291526</v>
       </c>
       <c r="F96">
+        <v>-0.0001354044030038571</v>
+      </c>
+      <c r="G96">
+        <v>-0.000457713749335173</v>
+      </c>
+      <c r="H96">
         <v>-0.0006770220150193009</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>-0.002288568746675877</v>
-      </c>
-      <c r="H96">
-        <v>0.002068442658981204</v>
-      </c>
-      <c r="I96">
-        <v>0.001952102179862445</v>
       </c>
       <c r="J96">
         <v>0.010342213294906</v>
@@ -4129,16 +4129,16 @@
         <v>-0.1468986271035062</v>
       </c>
       <c r="F97">
+        <v>-0.01857735681968851</v>
+      </c>
+      <c r="G97">
+        <v>-0.03504139720601369</v>
+      </c>
+      <c r="H97">
         <v>-0.09288678409844282</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>-0.1752069860300686</v>
-      </c>
-      <c r="H97">
-        <v>-0.05378521714526378</v>
-      </c>
-      <c r="I97">
-        <v>-0.05972806170927687</v>
       </c>
       <c r="J97">
         <v>-0.2689260857263191</v>
@@ -4164,16 +4164,16 @@
         <v>0.0217513425579032</v>
       </c>
       <c r="F98">
+        <v>0.001865517275492057</v>
+      </c>
+      <c r="G98">
+        <v>0.00338108612632061</v>
+      </c>
+      <c r="H98">
         <v>0.009327586377460286</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>0.01690543063160304</v>
-      </c>
-      <c r="H98">
-        <v>0.001013603810055459</v>
-      </c>
-      <c r="I98">
-        <v>0.001560662119874411</v>
       </c>
       <c r="J98">
         <v>0.005068019050277293</v>
@@ -4199,16 +4199,16 @@
         <v>0.07022672810605754</v>
       </c>
       <c r="F99">
+        <v>0.001548191423463001</v>
+      </c>
+      <c r="G99">
+        <v>0.009718910452843196</v>
+      </c>
+      <c r="H99">
         <v>0.007740957117315012</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>0.04859455226421598</v>
-      </c>
-      <c r="H99">
-        <v>0.001992144547638743</v>
-      </c>
-      <c r="I99">
-        <v>0.004941439619106227</v>
       </c>
       <c r="J99">
         <v>0.009960722738193708</v>
@@ -4234,16 +4234,16 @@
         <v>-0.07065237031419958</v>
       </c>
       <c r="F100">
+        <v>-0.01600418231646593</v>
+      </c>
+      <c r="G100">
+        <v>-0.01509230155746068</v>
+      </c>
+      <c r="H100">
         <v>-0.08002091158232966</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>-0.07546150778730343</v>
-      </c>
-      <c r="H100">
-        <v>0.0007937732897829283</v>
-      </c>
-      <c r="I100">
-        <v>0.001122924912624155</v>
       </c>
       <c r="J100">
         <v>0.00396886644891464</v>
@@ -4269,16 +4269,16 @@
         <v>0.2201101435311567</v>
       </c>
       <c r="F101">
+        <v>-0.002432663158865137</v>
+      </c>
+      <c r="G101">
+        <v>0.02823635573850996</v>
+      </c>
+      <c r="H101">
         <v>-0.01216331579432572</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>0.1411817786925497</v>
-      </c>
-      <c r="H101">
-        <v>0.004498645277467075</v>
-      </c>
-      <c r="I101">
-        <v>0.01556890555144359</v>
       </c>
       <c r="J101">
         <v>0.02249322638733538</v>
@@ -4339,16 +4339,16 @@
         <v>0.01046447321718641</v>
       </c>
       <c r="F103">
+        <v>-0.001628903048257758</v>
+      </c>
+      <c r="G103">
+        <v>0.0008264851797803858</v>
+      </c>
+      <c r="H103">
         <v>-0.008144515241288822</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>0.004132425898901906</v>
-      </c>
-      <c r="H103">
-        <v>0.002375646260377273</v>
-      </c>
-      <c r="I103">
-        <v>0.003261940890440134</v>
       </c>
       <c r="J103">
         <v>0.01187823130188634</v>
@@ -4374,16 +4374,16 @@
         <v>0.0669276062223295</v>
       </c>
       <c r="F104">
+        <v>0.0009439125619308697</v>
+      </c>
+      <c r="G104">
+        <v>0.00880051037999831</v>
+      </c>
+      <c r="H104">
         <v>0.004719562809654347</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>0.04400255189999156</v>
-      </c>
-      <c r="H104">
-        <v>0.0008837682041282136</v>
-      </c>
-      <c r="I104">
-        <v>0.003719678378007515</v>
       </c>
       <c r="J104">
         <v>0.004418841020641068</v>
@@ -4409,16 +4409,16 @@
         <v>0.01908457588973128</v>
       </c>
       <c r="F105">
+        <v>0.001821762930107832</v>
+      </c>
+      <c r="G105">
+        <v>0.002767473245771203</v>
+      </c>
+      <c r="H105">
         <v>0.009108814650539159</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>0.01383736622885602</v>
-      </c>
-      <c r="H105">
-        <v>0.0009502885197717378</v>
-      </c>
-      <c r="I105">
-        <v>0.001291651227630451</v>
       </c>
       <c r="J105">
         <v>0.004751442598858686</v>
@@ -4450,7 +4450,7 @@
         <v>124</v>
       </c>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I106" t="s">
         <v>124</v>
@@ -4479,16 +4479,16 @@
         <v>0.04526268995445259</v>
       </c>
       <c r="F107">
+        <v>0.0006957303705954085</v>
+      </c>
+      <c r="G107">
+        <v>0.005841504795979492</v>
+      </c>
+      <c r="H107">
         <v>0.003478651852977038</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>0.02920752397989746</v>
-      </c>
-      <c r="H107">
-        <v>0.001016201495156262</v>
-      </c>
-      <c r="I107">
-        <v>0.002873615401704453</v>
       </c>
       <c r="J107">
         <v>0.005081007475781313</v>
@@ -4549,16 +4549,16 @@
         <v>0.01533217458579775</v>
       </c>
       <c r="F109">
+        <v>0.01486349685879603</v>
+      </c>
+      <c r="G109">
+        <v>0.009247074269381815</v>
+      </c>
+      <c r="H109">
         <v>0.07431748429398018</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>0.04623537134690935</v>
-      </c>
-      <c r="H109">
-        <v>0.05011663234882424</v>
-      </c>
-      <c r="I109">
-        <v>0.04808933372275784</v>
       </c>
       <c r="J109">
         <v>0.2505831617441214</v>
@@ -4584,16 +4584,16 @@
         <v>-0.1044320348302436</v>
       </c>
       <c r="F110">
+        <v>-0.02254206080613431</v>
+      </c>
+      <c r="G110">
+        <v>-0.02280758805466588</v>
+      </c>
+      <c r="H110">
         <v>-0.1127103040306716</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>-0.1140379402733295</v>
-      </c>
-      <c r="H110">
-        <v>0.002875493988954967</v>
-      </c>
-      <c r="I110">
-        <v>0.002779649522559951</v>
       </c>
       <c r="J110">
         <v>0.01437746994477485</v>
@@ -4619,16 +4619,16 @@
         <v>0.02861057683324377</v>
       </c>
       <c r="F111">
+        <v>-8.812878152352853e-05</v>
+      </c>
+      <c r="G111">
+        <v>0.003666457199553875</v>
+      </c>
+      <c r="H111">
         <v>-0.0004406439076176496</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>0.01833228599776937</v>
-      </c>
-      <c r="H111">
-        <v>0.0008615113656546905</v>
-      </c>
-      <c r="I111">
-        <v>0.002216763197173428</v>
       </c>
       <c r="J111">
         <v>0.004307556828273452</v>
@@ -4654,16 +4654,16 @@
         <v>0.0494991097153091</v>
       </c>
       <c r="F112">
+        <v>0.003849555389120994</v>
+      </c>
+      <c r="G112">
+        <v>0.0071094790899419</v>
+      </c>
+      <c r="H112">
         <v>0.01924777694560496</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>0.03554739544970951</v>
-      </c>
-      <c r="H112">
-        <v>0.00217927862732076</v>
-      </c>
-      <c r="I112">
-        <v>0.003355977626468754</v>
       </c>
       <c r="J112">
         <v>0.01089639313660381</v>
@@ -4689,16 +4689,16 @@
         <v>0.03454445539727858</v>
       </c>
       <c r="F113">
+        <v>-0.002749951859772971</v>
+      </c>
+      <c r="G113">
+        <v>0.004042987602883765</v>
+      </c>
+      <c r="H113">
         <v>-0.01374975929886486</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>0.02021493801441883</v>
-      </c>
-      <c r="H113">
-        <v>0.001197973234631199</v>
-      </c>
-      <c r="I113">
-        <v>0.003649946286935537</v>
       </c>
       <c r="J113">
         <v>0.005989866173155989</v>

--- a/Sep19/pos_prof/Tables/individual_countries.xlsx
+++ b/Sep19/pos_prof/Tables/individual_countries.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -839,22 +839,22 @@
         <v>0.003856070580811031</v>
       </c>
       <c r="F3">
-        <v>4.354220968540874e-06</v>
+        <v>2.177110484270413e-05</v>
       </c>
       <c r="G3">
-        <v>0.0005548096404857128</v>
+        <v>0.002774048202428563</v>
       </c>
       <c r="H3">
-        <v>2.177110484270413e-05</v>
+        <v>-3.234760211862536e-05</v>
       </c>
       <c r="I3">
-        <v>0.002774048202428563</v>
+        <v>0.0005181078173985463</v>
       </c>
       <c r="J3">
-        <v>0.0002623427489888972</v>
+        <v>-0.0001617380105931268</v>
       </c>
       <c r="K3">
-        <v>0.001255802106731439</v>
+        <v>0.002590539086992732</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -874,22 +874,22 @@
         <v>0.008234588011364131</v>
       </c>
       <c r="F4">
-        <v>0.0002687305028922338</v>
+        <v>0.001343652514461169</v>
       </c>
       <c r="G4">
-        <v>0.001132698525650239</v>
+        <v>0.005663492628251195</v>
       </c>
       <c r="H4">
-        <v>0.001343652514461169</v>
+        <v>0.0002424444072880165</v>
       </c>
       <c r="I4">
-        <v>0.005663492628251195</v>
+        <v>0.001106412430046022</v>
       </c>
       <c r="J4">
-        <v>0.0004956604431924988</v>
+        <v>0.001212222036440083</v>
       </c>
       <c r="K4">
-        <v>0.002054945875884084</v>
+        <v>0.005532062150230109</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -909,22 +909,22 @@
         <v>0.03784573407026402</v>
       </c>
       <c r="F5">
-        <v>0.001045304631050021</v>
+        <v>0.005226523155250085</v>
       </c>
       <c r="G5">
-        <v>0.004798685949106487</v>
+        <v>0.02399342974553242</v>
       </c>
       <c r="H5">
-        <v>0.005226523155250085</v>
+        <v>0.001331632108452497</v>
       </c>
       <c r="I5">
-        <v>0.02399342974553242</v>
+        <v>0.005085013426508963</v>
       </c>
       <c r="J5">
-        <v>0.0160054759437099</v>
+        <v>0.006658160542262461</v>
       </c>
       <c r="K5">
-        <v>0.02277956093113712</v>
+        <v>0.02542506713254479</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -944,22 +944,22 @@
         <v>0.01909293424417914</v>
       </c>
       <c r="F6">
-        <v>0.003030462084183319</v>
+        <v>0.0151523104209166</v>
       </c>
       <c r="G6">
-        <v>0.002804399477797433</v>
+        <v>0.01402199738898715</v>
       </c>
       <c r="H6">
-        <v>0.0151523104209166</v>
+        <v>0.002791419822151638</v>
       </c>
       <c r="I6">
-        <v>0.01402199738898715</v>
+        <v>0.002565357215765749</v>
       </c>
       <c r="J6">
-        <v>0.00934679917271395</v>
+        <v>0.01395709911075821</v>
       </c>
       <c r="K6">
-        <v>0.008938802441667641</v>
+        <v>0.01282678607882877</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -979,22 +979,22 @@
         <v>0.0441286943448931</v>
       </c>
       <c r="F7">
-        <v>0.01227829785380266</v>
+        <v>0.0613914892690133</v>
       </c>
       <c r="G7">
-        <v>0.0131433612188101</v>
+        <v>0.06571680609405053</v>
       </c>
       <c r="H7">
-        <v>0.0613914892690133</v>
+        <v>0.005064138663984297</v>
       </c>
       <c r="I7">
-        <v>0.06571680609405053</v>
+        <v>0.005929202028991743</v>
       </c>
       <c r="J7">
-        <v>0.01218774114429268</v>
+        <v>0.02532069331992149</v>
       </c>
       <c r="K7">
-        <v>0.01374900344553538</v>
+        <v>0.02964601014495873</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1049,22 +1049,22 @@
         <v>0.001207608194900176</v>
       </c>
       <c r="F9">
-        <v>-0.0004021231516325628</v>
+        <v>-0.002010615758162818</v>
       </c>
       <c r="G9">
-        <v>-4.844203444757525e-05</v>
+        <v>-0.0002422101722378769</v>
       </c>
       <c r="H9">
-        <v>-0.002010615758162818</v>
+        <v>-0.0001914249465521542</v>
       </c>
       <c r="I9">
-        <v>-0.0002422101722378769</v>
+        <v>0.0001622561706328341</v>
       </c>
       <c r="J9">
-        <v>0.0006611848118034532</v>
+        <v>-0.0009571247327607676</v>
       </c>
       <c r="K9">
-        <v>0.001299506832199696</v>
+        <v>0.0008112808531641727</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1084,22 +1084,22 @@
         <v>-1.705433128864453</v>
       </c>
       <c r="F10">
-        <v>-0.1375078692669713</v>
+        <v>-0.687539346334856</v>
       </c>
       <c r="G10">
-        <v>-0.2326545633890953</v>
+        <v>-1.163272816945476</v>
       </c>
       <c r="H10">
-        <v>-0.687539346334856</v>
+        <v>-0.1339980317322697</v>
       </c>
       <c r="I10">
-        <v>-1.163272816945476</v>
+        <v>-0.2291447258543937</v>
       </c>
       <c r="J10">
-        <v>-2.100371119031297</v>
+        <v>-0.6699901586613478</v>
       </c>
       <c r="K10">
-        <v>-2.272091426039633</v>
+        <v>-1.145723629271968</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1119,22 +1119,22 @@
         <v>-0.01929418218576439</v>
       </c>
       <c r="F11">
-        <v>-0.003130017322702706</v>
+        <v>-0.01565008661351353</v>
       </c>
       <c r="G11">
-        <v>-0.002836783903218153</v>
+        <v>-0.01418391951609077</v>
       </c>
       <c r="H11">
-        <v>-0.01565008661351353</v>
+        <v>-0.002885630630910539</v>
       </c>
       <c r="I11">
-        <v>-0.01418391951609077</v>
+        <v>-0.002592397211425987</v>
       </c>
       <c r="J11">
-        <v>0.001850577446194349</v>
+        <v>-0.0144281531545527</v>
       </c>
       <c r="K11">
-        <v>0.002379803745474497</v>
+        <v>-0.01296198605712994</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1154,22 +1154,22 @@
         <v>0.0243816722976466</v>
       </c>
       <c r="F12">
-        <v>0.01290803450696008</v>
+        <v>0.06454017253480038</v>
       </c>
       <c r="G12">
-        <v>0.005464212923299617</v>
+        <v>0.02732106461649808</v>
       </c>
       <c r="H12">
-        <v>0.06454017253480038</v>
+        <v>0.01071978211237136</v>
       </c>
       <c r="I12">
-        <v>0.02732106461649808</v>
+        <v>0.003275960528710902</v>
       </c>
       <c r="J12">
-        <v>0.04686017147672372</v>
+        <v>0.0535989105618568</v>
       </c>
       <c r="K12">
-        <v>0.03342559721794004</v>
+        <v>0.01637980264355455</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1189,22 +1189,22 @@
         <v>0.02303612644503553</v>
       </c>
       <c r="F13">
-        <v>0.0008386906654919956</v>
+        <v>0.004193453327459973</v>
       </c>
       <c r="G13">
-        <v>0.003829143625506452</v>
+        <v>0.01914571812753225</v>
       </c>
       <c r="H13">
-        <v>0.004193453327459973</v>
+        <v>0.0001047178735142237</v>
       </c>
       <c r="I13">
-        <v>0.01914571812753225</v>
+        <v>0.003095170833528679</v>
       </c>
       <c r="J13">
-        <v>0.004352248449233267</v>
+        <v>0.0005235893675711161</v>
       </c>
       <c r="K13">
-        <v>0.009749403916648122</v>
+        <v>0.01547585416764339</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1259,22 +1259,22 @@
         <v>0.01227566967327276</v>
       </c>
       <c r="F15">
-        <v>0.001336647949188057</v>
+        <v>0.006683239745940284</v>
       </c>
       <c r="G15">
-        <v>0.002106212069255149</v>
+        <v>0.01053106034627574</v>
       </c>
       <c r="H15">
-        <v>0.006683239745940284</v>
+        <v>0.0008798145124648839</v>
       </c>
       <c r="I15">
-        <v>0.01053106034627574</v>
+        <v>0.001649378632531976</v>
       </c>
       <c r="J15">
-        <v>0.002144433492509222</v>
+        <v>0.004399072562324418</v>
       </c>
       <c r="K15">
-        <v>0.003533339204681446</v>
+        <v>0.00824689316265988</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1294,22 +1294,22 @@
         <v>0.1316208263421322</v>
       </c>
       <c r="F16">
-        <v>0.01645703728325772</v>
+        <v>0.08228518641628856</v>
       </c>
       <c r="G16">
-        <v>0.02328813455284347</v>
+        <v>0.1164406727642174</v>
       </c>
       <c r="H16">
-        <v>0.08228518641628856</v>
+        <v>0.01085368770288546</v>
       </c>
       <c r="I16">
-        <v>0.1164406727642174</v>
+        <v>0.01768478497247121</v>
       </c>
       <c r="J16">
-        <v>0.02018897781880758</v>
+        <v>0.05426843851442729</v>
       </c>
       <c r="K16">
-        <v>0.03251771011119222</v>
+        <v>0.08842392486235603</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1364,22 +1364,22 @@
         <v>0.002751022546207407</v>
       </c>
       <c r="F18">
-        <v>5.793910264175817e-06</v>
+        <v>2.896955132087862e-05</v>
       </c>
       <c r="G18">
-        <v>0.0003474246897845814</v>
+        <v>0.001737123448922906</v>
       </c>
       <c r="H18">
-        <v>2.896955132087862e-05</v>
+        <v>2.800101459730699e-05</v>
       </c>
       <c r="I18">
-        <v>0.001737123448922906</v>
+        <v>0.0003696317941177124</v>
       </c>
       <c r="J18">
-        <v>0.0004213757735593439</v>
+        <v>0.0001400050729865356</v>
       </c>
       <c r="K18">
-        <v>0.001037949401093295</v>
+        <v>0.001848158970588563</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1399,22 +1399,22 @@
         <v>0.089340949681259</v>
       </c>
       <c r="F19">
-        <v>0.01657935608009554</v>
+        <v>0.08289678040047771</v>
       </c>
       <c r="G19">
-        <v>0.01919439395333161</v>
+        <v>0.09597196976665809</v>
       </c>
       <c r="H19">
-        <v>0.08289678040047771</v>
+        <v>0.009388955174509141</v>
       </c>
       <c r="I19">
-        <v>0.09597196976665809</v>
+        <v>0.01200399304774523</v>
       </c>
       <c r="J19">
-        <v>0.03837459910997508</v>
+        <v>0.04694477587254571</v>
       </c>
       <c r="K19">
-        <v>0.04309420719067357</v>
+        <v>0.06001996523872607</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1434,22 +1434,22 @@
         <v>-0.002163747453292163</v>
       </c>
       <c r="F20">
-        <v>-0.005391750004025021</v>
+        <v>-0.02695875002012511</v>
       </c>
       <c r="G20">
-        <v>-0.0006987464000321451</v>
+        <v>-0.003493732000160745</v>
       </c>
       <c r="H20">
-        <v>-0.02695875002012511</v>
+        <v>-0.004983728176308946</v>
       </c>
       <c r="I20">
-        <v>-0.003493732000160745</v>
+        <v>-0.0002907245723160804</v>
       </c>
       <c r="J20">
-        <v>0.01303254138230199</v>
+        <v>-0.02491864088154472</v>
       </c>
       <c r="K20">
-        <v>0.02150245226154395</v>
+        <v>-0.001453622861580362</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1469,22 +1469,22 @@
         <v>0.01104414928380657</v>
       </c>
       <c r="F21">
-        <v>0.0001032417725122917</v>
+        <v>0.0005162088625614564</v>
       </c>
       <c r="G21">
-        <v>0.001350658380284596</v>
+        <v>0.006753291901422972</v>
       </c>
       <c r="H21">
-        <v>0.0005162088625614564</v>
+        <v>0.0002364929733778527</v>
       </c>
       <c r="I21">
-        <v>0.006753291901422972</v>
+        <v>0.001483909581150155</v>
       </c>
       <c r="J21">
-        <v>0.003091143596960316</v>
+        <v>0.00118246486688927</v>
       </c>
       <c r="K21">
-        <v>0.005342475236281551</v>
+        <v>0.007419547905750785</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1539,22 +1539,22 @@
         <v>0.2566492425484917</v>
       </c>
       <c r="F23">
-        <v>-0.001278797116273486</v>
+        <v>-0.006393985581367407</v>
       </c>
       <c r="G23">
-        <v>0.03258237258968209</v>
+        <v>0.1629118629484103</v>
       </c>
       <c r="H23">
-        <v>-0.006393985581367407</v>
+        <v>0.0006226334576840573</v>
       </c>
       <c r="I23">
-        <v>0.1629118629484103</v>
+        <v>0.03448380316363963</v>
       </c>
       <c r="J23">
-        <v>0.03620465856548145</v>
+        <v>0.003113167288420416</v>
       </c>
       <c r="K23">
-        <v>0.09731713873326074</v>
+        <v>0.1724190158181982</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1609,22 +1609,22 @@
         <v>-0.1586197448292723</v>
       </c>
       <c r="F25">
-        <v>-0.03190656149684279</v>
+        <v>-0.1595328074842139</v>
       </c>
       <c r="G25">
-        <v>-0.03198509677801977</v>
+        <v>-0.1599254838900988</v>
       </c>
       <c r="H25">
-        <v>-0.1595328074842139</v>
+        <v>-0.0212338676086383</v>
       </c>
       <c r="I25">
-        <v>-0.1599254838900988</v>
+        <v>-0.02131240288981529</v>
       </c>
       <c r="J25">
-        <v>-0.1655618863732473</v>
+        <v>-0.1061693380431915</v>
       </c>
       <c r="K25">
-        <v>-0.165703626480133</v>
+        <v>-0.1065620144490764</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1644,22 +1644,22 @@
         <v>0.04376081741283121</v>
       </c>
       <c r="F26">
-        <v>0.000847000470145472</v>
+        <v>0.004235002350727367</v>
       </c>
       <c r="G26">
-        <v>0.00575629128040781</v>
+        <v>0.02878145640203906</v>
       </c>
       <c r="H26">
-        <v>0.004235002350727367</v>
+        <v>0.0009704826851101439</v>
       </c>
       <c r="I26">
-        <v>0.02878145640203906</v>
+        <v>0.005879773495372481</v>
       </c>
       <c r="J26">
-        <v>0.007755611309162843</v>
+        <v>0.004852413425550739</v>
       </c>
       <c r="K26">
-        <v>0.01661587632319899</v>
+        <v>0.02939886747686242</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1679,22 +1679,22 @@
         <v>0.06292753139592112</v>
       </c>
       <c r="F27">
-        <v>0.009240794289634386</v>
+        <v>0.04620397144817186</v>
       </c>
       <c r="G27">
-        <v>0.009162598733349386</v>
+        <v>0.0458129936667469</v>
       </c>
       <c r="H27">
-        <v>0.04620397144817186</v>
+        <v>0.008533239431275964</v>
       </c>
       <c r="I27">
-        <v>0.0458129936667469</v>
+        <v>0.008455043874990974</v>
       </c>
       <c r="J27">
-        <v>0.02681959733273981</v>
+        <v>0.04266619715637985</v>
       </c>
       <c r="K27">
-        <v>0.0266784703597447</v>
+        <v>0.04227521937495487</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1714,22 +1714,22 @@
         <v>0.01141891952431379</v>
       </c>
       <c r="F28">
-        <v>0.001529087217812467</v>
+        <v>0.007645436089062327</v>
       </c>
       <c r="G28">
-        <v>0.001734123379137032</v>
+        <v>0.008670616895685143</v>
       </c>
       <c r="H28">
-        <v>0.007645436089062327</v>
+        <v>0.001329228149404814</v>
       </c>
       <c r="I28">
-        <v>0.008670616895685143</v>
+        <v>0.001534264310729377</v>
       </c>
       <c r="J28">
-        <v>0.008362107445075531</v>
+        <v>0.006646140747024072</v>
       </c>
       <c r="K28">
-        <v>0.008732155746756646</v>
+        <v>0.007671321553646889</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1749,22 +1749,22 @@
         <v>0.05872235514634999</v>
       </c>
       <c r="F29">
-        <v>-0.006240025363222721</v>
+        <v>-0.0312001268161136</v>
       </c>
       <c r="G29">
-        <v>0.006249765211279399</v>
+        <v>0.03124882605639698</v>
       </c>
       <c r="H29">
-        <v>-0.0312001268161136</v>
+        <v>-0.004599760913536044</v>
       </c>
       <c r="I29">
-        <v>0.03124882605639698</v>
+        <v>0.007890029660966075</v>
       </c>
       <c r="J29">
-        <v>0.009922918479421533</v>
+        <v>-0.02299880456768021</v>
       </c>
       <c r="K29">
-        <v>0.03246443389109174</v>
+        <v>0.03945014830483035</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1796,10 +1796,10 @@
         <v>123</v>
       </c>
       <c r="J30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1819,22 +1819,22 @@
         <v>0.1036303973289171</v>
       </c>
       <c r="F31">
-        <v>0.01307876037038379</v>
+        <v>0.06539380185191893</v>
       </c>
       <c r="G31">
-        <v>0.01783361751460688</v>
+        <v>0.08916808757303439</v>
       </c>
       <c r="H31">
-        <v>0.06539380185191893</v>
+        <v>0.009169088969060104</v>
       </c>
       <c r="I31">
-        <v>0.08916808757303439</v>
+        <v>0.01392394611328319</v>
       </c>
       <c r="J31">
-        <v>0.01779442061028252</v>
+        <v>0.04584544484530053</v>
       </c>
       <c r="K31">
-        <v>0.02637596446864041</v>
+        <v>0.06961973056641596</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1854,22 +1854,22 @@
         <v>0.03625725593880595</v>
       </c>
       <c r="F32">
-        <v>-0.001362739459173968</v>
+        <v>-0.006813697295869842</v>
       </c>
       <c r="G32">
-        <v>0.004035401357293547</v>
+        <v>0.02017700678646774</v>
       </c>
       <c r="H32">
-        <v>-0.006813697295869842</v>
+        <v>-0.0005265578550985241</v>
       </c>
       <c r="I32">
-        <v>0.02017700678646774</v>
+        <v>0.004871582961368992</v>
       </c>
       <c r="J32">
-        <v>0.006256879801144584</v>
+        <v>-0.002632789275492637</v>
       </c>
       <c r="K32">
-        <v>0.01599941901210483</v>
+        <v>0.02435791480684494</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1889,22 +1889,22 @@
         <v>0.01907718399633866</v>
       </c>
       <c r="F33">
-        <v>0.002416305811751989</v>
+        <v>0.01208152905875995</v>
       </c>
       <c r="G33">
-        <v>0.003645624886819779</v>
+        <v>0.0182281244340989</v>
       </c>
       <c r="H33">
-        <v>0.01208152905875995</v>
+        <v>0.001333921912179552</v>
       </c>
       <c r="I33">
-        <v>0.0182281244340989</v>
+        <v>0.002563240987247344</v>
       </c>
       <c r="J33">
-        <v>0.004617159858590104</v>
+        <v>0.006669609560897767</v>
       </c>
       <c r="K33">
-        <v>0.006835829155821726</v>
+        <v>0.01281620493623672</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1924,22 +1924,22 @@
         <v>0.06096549767744512</v>
       </c>
       <c r="F34">
-        <v>0.009588561145053564</v>
+        <v>0.04794280572526781</v>
       </c>
       <c r="G34">
-        <v>0.01011260260327639</v>
+        <v>0.05056301301638197</v>
       </c>
       <c r="H34">
-        <v>0.04794280572526781</v>
+        <v>0.00766738042483662</v>
       </c>
       <c r="I34">
-        <v>0.05056301301638197</v>
+        <v>0.008191421883059449</v>
       </c>
       <c r="J34">
-        <v>0.01597507377971655</v>
+        <v>0.03833690212418311</v>
       </c>
       <c r="K34">
-        <v>0.0169208613440813</v>
+        <v>0.04095710941529725</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1959,22 +1959,22 @@
         <v>0.001942626437379898</v>
       </c>
       <c r="F35">
-        <v>0.000168803706523804</v>
+        <v>0.0008440185326190275</v>
       </c>
       <c r="G35">
-        <v>0.0003374722940427737</v>
+        <v>0.001687361470213876</v>
       </c>
       <c r="H35">
-        <v>0.0008440185326190275</v>
+        <v>9.234581105044372e-05</v>
       </c>
       <c r="I35">
-        <v>0.001687361470213876</v>
+        <v>0.0002610143985694135</v>
       </c>
       <c r="J35">
-        <v>0.006769483968140722</v>
+        <v>0.000461729055252234</v>
       </c>
       <c r="K35">
-        <v>0.007073896243298108</v>
+        <v>0.001305071992847083</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1994,22 +1994,22 @@
         <v>0.05756151607710083</v>
       </c>
       <c r="F36">
-        <v>0.004879150399556589</v>
+        <v>0.02439575199778294</v>
       </c>
       <c r="G36">
-        <v>0.01112591017022099</v>
+        <v>0.05562955085110494</v>
       </c>
       <c r="H36">
-        <v>0.02439575199778294</v>
+        <v>0.001487297694275853</v>
       </c>
       <c r="I36">
-        <v>0.05562955085110494</v>
+        <v>0.007734057464940251</v>
       </c>
       <c r="J36">
-        <v>0.007147795229207103</v>
+        <v>0.007436488471379255</v>
       </c>
       <c r="K36">
-        <v>0.0184219179459562</v>
+        <v>0.03867028732470126</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2029,22 +2029,22 @@
         <v>0.05837196497030833</v>
       </c>
       <c r="F37">
-        <v>0.008595888897413362</v>
+        <v>0.04297944448706682</v>
       </c>
       <c r="G37">
-        <v>0.009401140514957612</v>
+        <v>0.04700570257478805</v>
       </c>
       <c r="H37">
-        <v>0.04297944448706682</v>
+        <v>0.007037699058340419</v>
       </c>
       <c r="I37">
-        <v>0.04700570257478805</v>
+        <v>0.007842950675884667</v>
       </c>
       <c r="J37">
-        <v>0.01940160143664835</v>
+        <v>0.03518849529170209</v>
       </c>
       <c r="K37">
-        <v>0.02085491577677848</v>
+        <v>0.03921475337942334</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2064,22 +2064,22 @@
         <v>0.05284435914849082</v>
       </c>
       <c r="F38">
-        <v>0.009141908462223926</v>
+        <v>0.04570954231111955</v>
       </c>
       <c r="G38">
-        <v>0.01006533524052571</v>
+        <v>0.05032667620262848</v>
       </c>
       <c r="H38">
-        <v>0.04570954231111955</v>
+        <v>0.006176825928818248</v>
       </c>
       <c r="I38">
-        <v>0.05032667620262848</v>
+        <v>0.007100252707120039</v>
       </c>
       <c r="J38">
-        <v>0.03030164896167134</v>
+        <v>0.03088412964409131</v>
       </c>
       <c r="K38">
-        <v>0.031968245277316</v>
+        <v>0.03550126353560023</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2099,22 +2099,22 @@
         <v>-0.005268618671193851</v>
       </c>
       <c r="F39">
-        <v>-0.001972060205978302</v>
+        <v>-0.009860301029891523</v>
       </c>
       <c r="G39">
-        <v>-0.001688715150355205</v>
+        <v>-0.008443575751776036</v>
       </c>
       <c r="H39">
-        <v>-0.009860301029891523</v>
+        <v>-0.0009912450961517554</v>
       </c>
       <c r="I39">
-        <v>-0.008443575751776036</v>
+        <v>-0.0007079000405286564</v>
       </c>
       <c r="J39">
-        <v>0.002165137336643287</v>
+        <v>-0.004956225480758758</v>
       </c>
       <c r="K39">
-        <v>0.002676517163234433</v>
+        <v>-0.003539500202643269</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2134,22 +2134,22 @@
         <v>-0.3273637937045721</v>
       </c>
       <c r="F40">
-        <v>-0.009200887710970877</v>
+        <v>-0.04600443855485446</v>
       </c>
       <c r="G40">
-        <v>-0.01873319079184037</v>
+        <v>-0.09366595395920202</v>
       </c>
       <c r="H40">
-        <v>-0.04600443855485446</v>
+        <v>-0.03445282040094982</v>
       </c>
       <c r="I40">
-        <v>-0.09366595395920202</v>
+        <v>-0.04398512348181931</v>
       </c>
       <c r="J40">
-        <v>0.05895343966402699</v>
+        <v>-0.1722641020047491</v>
       </c>
       <c r="K40">
-        <v>0.04174958380075945</v>
+        <v>-0.2199256174090966</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2204,22 +2204,22 @@
         <v>0.08585702133897838</v>
       </c>
       <c r="F42">
-        <v>0.006225892690440911</v>
+        <v>0.03112946345220456</v>
       </c>
       <c r="G42">
-        <v>0.01297865353455804</v>
+        <v>0.0648932676727902</v>
       </c>
       <c r="H42">
-        <v>0.03112946345220456</v>
+        <v>0.004783126013255319</v>
       </c>
       <c r="I42">
-        <v>0.0648932676727902</v>
+        <v>0.01153588685737245</v>
       </c>
       <c r="J42">
-        <v>0.009430276221298096</v>
+        <v>0.0239156300662766</v>
       </c>
       <c r="K42">
-        <v>0.02161762730064614</v>
+        <v>0.05767943428686224</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2274,22 +2274,22 @@
         <v>-0.01373470588939825</v>
       </c>
       <c r="F44">
-        <v>-0.001595198577187866</v>
+        <v>-0.007975992885939386</v>
       </c>
       <c r="G44">
-        <v>-0.006347059339751261</v>
+        <v>-0.03173529669875629</v>
       </c>
       <c r="H44">
-        <v>-0.007975992885939386</v>
+        <v>0.002906443687891885</v>
       </c>
       <c r="I44">
-        <v>-0.03173529669875629</v>
+        <v>-0.001845417074671494</v>
       </c>
       <c r="J44">
-        <v>-0.06270189419361182</v>
+        <v>0.01453221843945944</v>
       </c>
       <c r="K44">
-        <v>-0.07127803019641291</v>
+        <v>-0.009227085373357449</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2309,22 +2309,22 @@
         <v>0.5921942418347351</v>
       </c>
       <c r="F45">
-        <v>0.01108025296465407</v>
+        <v>0.05540126482327033</v>
       </c>
       <c r="G45">
-        <v>0.08083812965478654</v>
+        <v>0.4041906482739327</v>
       </c>
       <c r="H45">
-        <v>0.05540126482327033</v>
+        <v>0.00981028983664555</v>
       </c>
       <c r="I45">
-        <v>0.4041906482739327</v>
+        <v>0.07956816652677798</v>
       </c>
       <c r="J45">
-        <v>0.03201413597306068</v>
+        <v>0.04905144918322776</v>
       </c>
       <c r="K45">
-        <v>0.1579128244351523</v>
+        <v>0.3978408326338899</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2344,22 +2344,22 @@
         <v>0.01188292957190067</v>
       </c>
       <c r="F46">
-        <v>-0.0008537683209782175</v>
+        <v>-0.004268841604891091</v>
       </c>
       <c r="G46">
-        <v>0.001211847291192149</v>
+        <v>0.006059236455960747</v>
       </c>
       <c r="H46">
-        <v>-0.004268841604891091</v>
+        <v>-0.0004690061684959221</v>
       </c>
       <c r="I46">
-        <v>0.006059236455960747</v>
+        <v>0.001596609443674445</v>
       </c>
       <c r="J46">
-        <v>0.003427367653894707</v>
+        <v>-0.002345030842479604</v>
       </c>
       <c r="K46">
-        <v>0.007155381016375049</v>
+        <v>0.007983047218372232</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2379,22 +2379,22 @@
         <v>-0.2345188931036261</v>
       </c>
       <c r="F47">
-        <v>-0.06381617967012021</v>
+        <v>-0.3190808983506011</v>
       </c>
       <c r="G47">
-        <v>-0.05519574171958812</v>
+        <v>-0.2759787085979407</v>
       </c>
       <c r="H47">
-        <v>-0.3190808983506011</v>
+        <v>-0.04013077192867391</v>
       </c>
       <c r="I47">
-        <v>-0.2759787085979407</v>
+        <v>-0.03151033397814183</v>
       </c>
       <c r="J47">
-        <v>0.0313577138898759</v>
+        <v>-0.2006538596433695</v>
       </c>
       <c r="K47">
-        <v>0.04691583984548359</v>
+        <v>-0.157551669890709</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2414,22 +2414,22 @@
         <v>-0.005398598622637</v>
       </c>
       <c r="F48">
-        <v>-0.001088275441505617</v>
+        <v>-0.005441377207528077</v>
       </c>
       <c r="G48">
-        <v>-0.0001798306388739869</v>
+        <v>-0.0008991531943699242</v>
       </c>
       <c r="H48">
-        <v>-0.005441377207528077</v>
+        <v>-0.001633809157554035</v>
       </c>
       <c r="I48">
-        <v>-0.0008991531943699242</v>
+        <v>-0.0007253643549224049</v>
       </c>
       <c r="J48">
-        <v>0.002633498487174599</v>
+        <v>-0.008169045787770174</v>
       </c>
       <c r="K48">
-        <v>0.004273055403443302</v>
+        <v>-0.003626821774612024</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2449,22 +2449,22 @@
         <v>-0.1979497191211252</v>
       </c>
       <c r="F49">
-        <v>-0.01487186806858594</v>
+        <v>-0.07435934034292989</v>
       </c>
       <c r="G49">
-        <v>-0.03928453475173437</v>
+        <v>-0.196422673758672</v>
       </c>
       <c r="H49">
-        <v>-0.07435934034292989</v>
+        <v>-0.002184174525844853</v>
       </c>
       <c r="I49">
-        <v>-0.196422673758672</v>
+        <v>-0.02659684120899333</v>
       </c>
       <c r="J49">
-        <v>-0.3536200701059222</v>
+        <v>-0.01092087262922427</v>
       </c>
       <c r="K49">
-        <v>-0.3976799363619339</v>
+        <v>-0.1329842060449664</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2484,22 +2484,22 @@
         <v>-0.01537012183345571</v>
       </c>
       <c r="F50">
-        <v>-0.004460349761142865</v>
+        <v>-0.02230174880571436</v>
       </c>
       <c r="G50">
-        <v>-0.003110600659003034</v>
+        <v>-0.01555300329501516</v>
       </c>
       <c r="H50">
-        <v>-0.02230174880571436</v>
+        <v>-0.003414903281606801</v>
       </c>
       <c r="I50">
-        <v>-0.01555300329501516</v>
+        <v>-0.002065154179466959</v>
       </c>
       <c r="J50">
-        <v>0.008262763797160263</v>
+        <v>-0.017074516408034</v>
       </c>
       <c r="K50">
-        <v>0.01069878464204829</v>
+        <v>-0.0103257708973348</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2531,7 +2531,7 @@
         <v>124</v>
       </c>
       <c r="J51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K51" t="s">
         <v>124</v>
@@ -2554,22 +2554,22 @@
         <v>0.03486673411010467</v>
       </c>
       <c r="F52">
-        <v>0.005215793004355008</v>
+        <v>0.02607896502177503</v>
       </c>
       <c r="G52">
-        <v>0.00541799677363035</v>
+        <v>0.02708998386815176</v>
       </c>
       <c r="H52">
-        <v>0.02607896502177503</v>
+        <v>0.004482546452750489</v>
       </c>
       <c r="I52">
-        <v>0.02708998386815176</v>
+        <v>0.004684750222025835</v>
       </c>
       <c r="J52">
-        <v>0.01443640412046252</v>
+        <v>0.02241273226375247</v>
       </c>
       <c r="K52">
-        <v>0.01480134053426622</v>
+        <v>0.02342375111012919</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2601,10 +2601,10 @@
         <v>124</v>
       </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2624,22 +2624,22 @@
         <v>0.09963806319905115</v>
       </c>
       <c r="F54">
-        <v>-0.003422846441797259</v>
+        <v>-0.01711423220898632</v>
       </c>
       <c r="G54">
-        <v>0.01191921830570422</v>
+        <v>0.0595960915285211</v>
       </c>
       <c r="H54">
-        <v>-0.01711423220898632</v>
+        <v>-0.00195453504024671</v>
       </c>
       <c r="I54">
-        <v>0.0595960915285211</v>
+        <v>0.01338752970725477</v>
       </c>
       <c r="J54">
-        <v>0.004454923674906928</v>
+        <v>-0.009772675201233557</v>
       </c>
       <c r="K54">
-        <v>0.03214421012768902</v>
+        <v>0.06693764853627385</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2659,22 +2659,22 @@
         <v>-0.02295093818424351</v>
       </c>
       <c r="F55">
-        <v>-0.003585108621028379</v>
+        <v>-0.01792554310514189</v>
       </c>
       <c r="G55">
-        <v>-0.003424459692021923</v>
+        <v>-0.01712229846010963</v>
       </c>
       <c r="H55">
-        <v>-0.01792554310514189</v>
+        <v>-0.003244373731415639</v>
       </c>
       <c r="I55">
-        <v>-0.01712229846010963</v>
+        <v>-0.003083724802409183</v>
       </c>
       <c r="J55">
-        <v>0.003937741560550611</v>
+        <v>-0.01622186865707819</v>
       </c>
       <c r="K55">
-        <v>0.004227679993662543</v>
+        <v>-0.01541862401204592</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2694,22 +2694,22 @@
         <v>-0.01371388389105238</v>
       </c>
       <c r="F56">
-        <v>-0.003471260018809754</v>
+        <v>-0.01735630009404877</v>
       </c>
       <c r="G56">
-        <v>-0.0036579345408019</v>
+        <v>-0.01828967270400949</v>
       </c>
       <c r="H56">
-        <v>-0.01735630009404877</v>
+        <v>-0.00165594487564238</v>
       </c>
       <c r="I56">
-        <v>-0.01828967270400949</v>
+        <v>-0.001842619397634526</v>
       </c>
       <c r="J56">
-        <v>0.0065839995489905</v>
+        <v>-0.008279724378211914</v>
       </c>
       <c r="K56">
-        <v>0.006247090247801533</v>
+        <v>-0.009213096988172628</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2729,22 +2729,22 @@
         <v>0.01349781274423307</v>
       </c>
       <c r="F57">
-        <v>0.001537877617937051</v>
+        <v>0.007689388089685257</v>
       </c>
       <c r="G57">
-        <v>0.002169767849371519</v>
+        <v>0.01084883924685759</v>
       </c>
       <c r="H57">
-        <v>0.007689388089685257</v>
+        <v>0.001181697500950349</v>
       </c>
       <c r="I57">
-        <v>0.01084883924685759</v>
+        <v>0.001813587732384817</v>
       </c>
       <c r="J57">
-        <v>0.002697830608211299</v>
+        <v>0.00590848750475175</v>
       </c>
       <c r="K57">
-        <v>0.003838263132311624</v>
+        <v>0.009067938661924084</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2764,22 +2764,22 @@
         <v>0.01410023170052281</v>
       </c>
       <c r="F58">
-        <v>0.0008148351285566907</v>
+        <v>0.004074175642783455</v>
       </c>
       <c r="G58">
-        <v>0.002654828328214251</v>
+        <v>0.01327414164107125</v>
       </c>
       <c r="H58">
-        <v>0.004074175642783455</v>
+        <v>5.453650825954707e-05</v>
       </c>
       <c r="I58">
-        <v>0.01327414164107125</v>
+        <v>0.001894529707917105</v>
       </c>
       <c r="J58">
-        <v>0.002173593239859897</v>
+        <v>0.0002726825412977414</v>
       </c>
       <c r="K58">
-        <v>0.005494404331130145</v>
+        <v>0.009472648539585533</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2799,22 +2799,22 @@
         <v>-0.4967451849497233</v>
       </c>
       <c r="F59">
-        <v>-0.1000730199380799</v>
+        <v>-0.5003650996903998</v>
       </c>
       <c r="G59">
-        <v>-0.07002742069995341</v>
+        <v>-0.3501371034997674</v>
       </c>
       <c r="H59">
-        <v>-0.5003650996903998</v>
+        <v>-0.09678907765324614</v>
       </c>
       <c r="I59">
-        <v>-0.3501371034997674</v>
+        <v>-0.06674347841511963</v>
       </c>
       <c r="J59">
-        <v>-0.897375799007206</v>
+        <v>-0.4839453882662303</v>
       </c>
       <c r="K59">
-        <v>-0.8431496425124969</v>
+        <v>-0.3337173920755978</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2834,22 +2834,22 @@
         <v>0.003762413225218808</v>
       </c>
       <c r="F60">
-        <v>7.70941468793832e-05</v>
+        <v>0.000385470734396916</v>
       </c>
       <c r="G60">
-        <v>0.0003573385095178146</v>
+        <v>0.001786692547589082</v>
       </c>
       <c r="H60">
-        <v>0.000385470734396916</v>
+        <v>0.0002252795025029442</v>
       </c>
       <c r="I60">
-        <v>0.001786692547589082</v>
+        <v>0.0005055238651413757</v>
       </c>
       <c r="J60">
-        <v>0.005099830301491932</v>
+        <v>0.001126397512514717</v>
       </c>
       <c r="K60">
-        <v>0.005605614011936553</v>
+        <v>0.002527619325706882</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2875,16 +2875,16 @@
         <v>124</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2916,10 +2916,10 @@
         <v>123</v>
       </c>
       <c r="J62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2939,22 +2939,22 @@
         <v>-0.379551591957405</v>
       </c>
       <c r="F63">
-        <v>-0.06252972004787037</v>
+        <v>-0.3126486002393517</v>
       </c>
       <c r="G63">
-        <v>-0.05982904300588002</v>
+        <v>-0.2991452150293999</v>
       </c>
       <c r="H63">
-        <v>-0.3126486002393517</v>
+        <v>-0.05369783665773439</v>
       </c>
       <c r="I63">
-        <v>-0.2991452150293999</v>
+        <v>-0.05099715961574403</v>
       </c>
       <c r="J63">
-        <v>-0.469609084409769</v>
+        <v>-0.2684891832886717</v>
       </c>
       <c r="K63">
-        <v>-0.4647349151592252</v>
+        <v>-0.25498579807872</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2974,22 +2974,22 @@
         <v>0.01330069047652222</v>
       </c>
       <c r="F64">
-        <v>-0.0007231937218926453</v>
+        <v>-0.003615968609463229</v>
       </c>
       <c r="G64">
-        <v>0.001129182276661897</v>
+        <v>0.005645911383309477</v>
       </c>
       <c r="H64">
-        <v>-0.003615968609463229</v>
+        <v>-6.527392968235628e-05</v>
       </c>
       <c r="I64">
-        <v>0.005645911383309477</v>
+        <v>0.001787102068872184</v>
       </c>
       <c r="J64">
-        <v>0.00364965072906009</v>
+        <v>-0.0003263696484117796</v>
       </c>
       <c r="K64">
-        <v>0.006992810237664558</v>
+        <v>0.008935510344360926</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3009,22 +3009,22 @@
         <v>0.02509673136499284</v>
       </c>
       <c r="F65">
-        <v>-0.002553683871924156</v>
+        <v>-0.01276841935962078</v>
       </c>
       <c r="G65">
-        <v>0.002064230659570367</v>
+        <v>0.01032115329785183</v>
       </c>
       <c r="H65">
-        <v>-0.01276841935962078</v>
+        <v>-0.001245877521575674</v>
       </c>
       <c r="I65">
-        <v>0.01032115329785183</v>
+        <v>0.003372037009918851</v>
       </c>
       <c r="J65">
-        <v>0.004629690254108458</v>
+        <v>-0.006229387607878349</v>
       </c>
       <c r="K65">
-        <v>0.01296408072771407</v>
+        <v>0.01686018504959426</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3044,22 +3044,22 @@
         <v>-0.001972378520991138</v>
       </c>
       <c r="F66">
-        <v>-0.002128757783114385</v>
+        <v>-0.01064378891557193</v>
       </c>
       <c r="G66">
-        <v>-0.001524431602782514</v>
+        <v>-0.007622158013912587</v>
       </c>
       <c r="H66">
-        <v>-0.01064378891557193</v>
+        <v>-0.0008693381164929468</v>
       </c>
       <c r="I66">
-        <v>-0.007622158013912587</v>
+        <v>-0.0002650119361610785</v>
       </c>
       <c r="J66">
-        <v>0.003468929901488953</v>
+        <v>-0.004346690582464722</v>
       </c>
       <c r="K66">
-        <v>0.004559614955523145</v>
+        <v>-0.001325059680805375</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3079,22 +3079,22 @@
         <v>0.04101775048160298</v>
       </c>
       <c r="F67">
-        <v>0.0002549150629027302</v>
+        <v>0.001274575314513657</v>
       </c>
       <c r="G67">
-        <v>0.005345240108538106</v>
+        <v>0.02672620054269053</v>
       </c>
       <c r="H67">
-        <v>0.001274575314513657</v>
+        <v>0.000420885584786162</v>
       </c>
       <c r="I67">
-        <v>0.02672620054269053</v>
+        <v>0.005511210630421536</v>
       </c>
       <c r="J67">
-        <v>0.003814112244410434</v>
+        <v>0.002104427923930811</v>
       </c>
       <c r="K67">
-        <v>0.01300110699681642</v>
+        <v>0.02755605315210768</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3126,10 +3126,10 @@
         <v>124</v>
       </c>
       <c r="J68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3149,22 +3149,22 @@
         <v>0.03856403045606384</v>
       </c>
       <c r="F69">
-        <v>0.0009620288169165497</v>
+        <v>0.00481014408458275</v>
       </c>
       <c r="G69">
-        <v>0.00567619546904775</v>
+        <v>0.02838097734523876</v>
       </c>
       <c r="H69">
-        <v>0.00481014408458275</v>
+        <v>0.0004673582268765715</v>
       </c>
       <c r="I69">
-        <v>0.02838097734523876</v>
+        <v>0.005181524879007771</v>
       </c>
       <c r="J69">
-        <v>0.001731334137074866</v>
+        <v>0.002336791134382857</v>
       </c>
       <c r="K69">
-        <v>0.01023943998627428</v>
+        <v>0.02590762439503886</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3219,22 +3219,22 @@
         <v>-0.06706144165558459</v>
       </c>
       <c r="F71">
-        <v>-0.01110279252741071</v>
+        <v>-0.05551396263705378</v>
       </c>
       <c r="G71">
-        <v>-0.002842527484717598</v>
+        <v>-0.01421263742358799</v>
       </c>
       <c r="H71">
-        <v>-0.05551396263705378</v>
+        <v>-0.01727074771919728</v>
       </c>
       <c r="I71">
-        <v>-0.01421263742358799</v>
+        <v>-0.009010482676504167</v>
       </c>
       <c r="J71">
-        <v>-0.2526045645114263</v>
+        <v>-0.08635373859598626</v>
       </c>
       <c r="K71">
-        <v>-0.2376964769295198</v>
+        <v>-0.04505241338252056</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3254,22 +3254,22 @@
         <v>-0.03485827263192307</v>
       </c>
       <c r="F72">
-        <v>-0.006165109948222345</v>
+        <v>-0.03082554974111175</v>
       </c>
       <c r="G72">
-        <v>-0.008703568288255482</v>
+        <v>-0.04351784144127744</v>
       </c>
       <c r="H72">
-        <v>-0.03082554974111175</v>
+        <v>-0.00214515498423611</v>
       </c>
       <c r="I72">
-        <v>-0.04351784144127744</v>
+        <v>-0.00468361332426924</v>
       </c>
       <c r="J72">
-        <v>-0.05248729081153673</v>
+        <v>-0.0107257749211805</v>
       </c>
       <c r="K72">
-        <v>-0.05706868851011429</v>
+        <v>-0.02341806662134617</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3289,22 +3289,22 @@
         <v>-1.074427851833234</v>
       </c>
       <c r="F73">
-        <v>-0.2174003594388621</v>
+        <v>-1.087001797194311</v>
       </c>
       <c r="G73">
-        <v>-0.2222673577378887</v>
+        <v>-1.111336788689444</v>
       </c>
       <c r="H73">
-        <v>-1.087001797194311</v>
+        <v>-0.1394948481971661</v>
       </c>
       <c r="I73">
-        <v>-1.111336788689444</v>
+        <v>-0.1443618464961925</v>
       </c>
       <c r="J73">
-        <v>-1.154733547794091</v>
+        <v>-0.6974742409858294</v>
       </c>
       <c r="K73">
-        <v>-1.163517483482337</v>
+        <v>-0.7218092324809625</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3324,22 +3324,22 @@
         <v>0.1789488346856329</v>
       </c>
       <c r="F74">
-        <v>0.006117863067813328</v>
+        <v>0.03058931533906666</v>
       </c>
       <c r="G74">
-        <v>0.02521625079116567</v>
+        <v>0.1260812539558284</v>
       </c>
       <c r="H74">
-        <v>0.03058931533906666</v>
+        <v>0.004945464229556225</v>
       </c>
       <c r="I74">
-        <v>0.1260812539558284</v>
+        <v>0.02404385195290857</v>
       </c>
       <c r="J74">
-        <v>0.02787715909800234</v>
+        <v>0.0247273211477811</v>
       </c>
       <c r="K74">
-        <v>0.06234583962839316</v>
+        <v>0.1202192597645428</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3359,22 +3359,22 @@
         <v>0.03382107552342239</v>
       </c>
       <c r="F75">
-        <v>0.001397170980953853</v>
+        <v>0.006985854904769277</v>
       </c>
       <c r="G75">
-        <v>0.005346852382777136</v>
+        <v>0.02673426191388569</v>
       </c>
       <c r="H75">
-        <v>0.006985854904769277</v>
+        <v>0.0005945724582360551</v>
       </c>
       <c r="I75">
-        <v>0.02673426191388569</v>
+        <v>0.00454425386005934</v>
       </c>
       <c r="J75">
-        <v>0.01168823436358887</v>
+        <v>0.002972862291180282</v>
       </c>
       <c r="K75">
-        <v>0.01881660082092122</v>
+        <v>0.02272126930029668</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3394,22 +3394,22 @@
         <v>0.007919305790598024</v>
       </c>
       <c r="F76">
-        <v>0.0002222189032657457</v>
+        <v>0.001111094516328728</v>
       </c>
       <c r="G76">
-        <v>0.001057359383201291</v>
+        <v>0.005286796916006454</v>
       </c>
       <c r="H76">
-        <v>0.001111094516328728</v>
+        <v>0.0002289101261131223</v>
       </c>
       <c r="I76">
-        <v>0.005286796916006454</v>
+        <v>0.001064050606048667</v>
       </c>
       <c r="J76">
-        <v>0.0009854956373142459</v>
+        <v>0.001144550630565612</v>
       </c>
       <c r="K76">
-        <v>0.002492753256013524</v>
+        <v>0.005320253030243336</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3429,22 +3429,22 @@
         <v>-0.006858222057026839</v>
       </c>
       <c r="F77">
-        <v>0.03092959347476199</v>
+        <v>0.1546479673738101</v>
       </c>
       <c r="G77">
-        <v>0.02906094306646087</v>
+        <v>0.1453047153323044</v>
       </c>
       <c r="H77">
-        <v>0.1546479673738101</v>
+        <v>0.0009471687116529808</v>
       </c>
       <c r="I77">
-        <v>0.1453047153323044</v>
+        <v>-0.0009214816966481464</v>
       </c>
       <c r="J77">
-        <v>0.01600760620128083</v>
+        <v>0.004735843558264887</v>
       </c>
       <c r="K77">
-        <v>0.01263507471434492</v>
+        <v>-0.004607408483240732</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3499,22 +3499,22 @@
         <v>-0.2238764628124058</v>
       </c>
       <c r="F79">
-        <v>-0.03492401599625428</v>
+        <v>-0.1746200799812716</v>
       </c>
       <c r="G79">
-        <v>-0.04517727788517119</v>
+        <v>-0.2258863894258561</v>
       </c>
       <c r="H79">
-        <v>-0.1746200799812716</v>
+        <v>-0.01982713811513242</v>
       </c>
       <c r="I79">
-        <v>-0.2258863894258561</v>
+        <v>-0.03008040000404933</v>
       </c>
       <c r="J79">
-        <v>-0.3151268510078791</v>
+        <v>-0.09913569057566189</v>
       </c>
       <c r="K79">
-        <v>-0.3336318899443005</v>
+        <v>-0.1504020000202464</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3534,22 +3534,22 @@
         <v>0.01705695025001803</v>
       </c>
       <c r="F80">
-        <v>0.007196640639274081</v>
+        <v>0.03598320319637043</v>
       </c>
       <c r="G80">
-        <v>0.006571333249709549</v>
+        <v>0.03285666624854777</v>
       </c>
       <c r="H80">
-        <v>0.03598320319637043</v>
+        <v>0.002917106535951969</v>
       </c>
       <c r="I80">
-        <v>0.03285666624854777</v>
+        <v>0.002291799146387438</v>
       </c>
       <c r="J80">
-        <v>0.01067449196535089</v>
+        <v>0.01458553267975985</v>
       </c>
       <c r="K80">
-        <v>0.009545940123362769</v>
+        <v>0.01145899573193719</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3569,22 +3569,22 @@
         <v>0.008900522553215202</v>
       </c>
       <c r="F81">
-        <v>4.472496772767526e-06</v>
+        <v>2.236248386381903e-05</v>
       </c>
       <c r="G81">
-        <v>0.0007113025836511627</v>
+        <v>0.003556512918255809</v>
       </c>
       <c r="H81">
-        <v>2.236248386381903e-05</v>
+        <v>0.0004890583744741323</v>
       </c>
       <c r="I81">
-        <v>0.003556512918255809</v>
+        <v>0.001195888461352531</v>
       </c>
       <c r="J81">
-        <v>0.007773739100138231</v>
+        <v>0.002445291872370666</v>
       </c>
       <c r="K81">
-        <v>0.009049422723635401</v>
+        <v>0.005979442306762657</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3616,7 +3616,7 @@
         <v>123</v>
       </c>
       <c r="J82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K82" t="s">
         <v>123</v>
@@ -3639,22 +3639,22 @@
         <v>0.04361551322862701</v>
       </c>
       <c r="F83">
-        <v>0.01086520132542882</v>
+        <v>0.05432600662714408</v>
       </c>
       <c r="G83">
-        <v>0.01351030627844949</v>
+        <v>0.06755153139224743</v>
       </c>
       <c r="H83">
-        <v>0.05432600662714408</v>
+        <v>0.003215145239507842</v>
       </c>
       <c r="I83">
-        <v>0.06755153139224743</v>
+        <v>0.005860250192528514</v>
       </c>
       <c r="J83">
-        <v>0.01105970099931593</v>
+        <v>0.01607572619753922</v>
       </c>
       <c r="K83">
-        <v>0.01583357400449861</v>
+        <v>0.02930125096264256</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3680,16 +3680,16 @@
         <v>124</v>
       </c>
       <c r="H84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3709,22 +3709,22 @@
         <v>0.1310060453066603</v>
       </c>
       <c r="F85">
-        <v>-0.001856469936190703</v>
+        <v>-0.009282349680953504</v>
       </c>
       <c r="G85">
-        <v>0.01684259185683969</v>
+        <v>0.08421295928419847</v>
       </c>
       <c r="H85">
-        <v>-0.009282349680953504</v>
+        <v>-0.001096879784843983</v>
       </c>
       <c r="I85">
-        <v>0.08421295928419847</v>
+        <v>0.0176021820081864</v>
       </c>
       <c r="J85">
-        <v>0.01038470220417805</v>
+        <v>-0.005484398924219888</v>
       </c>
       <c r="K85">
-        <v>0.04413268116964367</v>
+        <v>0.08801091004093203</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3756,10 +3756,10 @@
         <v>123</v>
       </c>
       <c r="J86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3779,22 +3779,22 @@
         <v>0.09142128114892077</v>
       </c>
       <c r="F87">
-        <v>0.003839894568289895</v>
+        <v>0.01919947284144947</v>
       </c>
       <c r="G87">
-        <v>0.01308974647318913</v>
+        <v>0.06544873236594567</v>
       </c>
       <c r="H87">
-        <v>0.01919947284144947</v>
+        <v>0.003033657809770955</v>
       </c>
       <c r="I87">
-        <v>0.06544873236594567</v>
+        <v>0.01228350971467019</v>
       </c>
       <c r="J87">
-        <v>0.01544133102981101</v>
+        <v>0.01516828904885478</v>
       </c>
       <c r="K87">
-        <v>0.03213542033628961</v>
+        <v>0.06141754857335097</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3849,22 +3849,22 @@
         <v>0.03422370111468096</v>
       </c>
       <c r="F89">
-        <v>0.002661192602858183</v>
+        <v>0.01330596301429092</v>
       </c>
       <c r="G89">
-        <v>0.004949796725817849</v>
+        <v>0.02474898362908926</v>
       </c>
       <c r="H89">
-        <v>0.01330596301429092</v>
+        <v>0.002309747156206534</v>
       </c>
       <c r="I89">
-        <v>0.02474898362908926</v>
+        <v>0.004598351279166199</v>
       </c>
       <c r="J89">
-        <v>0.006459411946210521</v>
+        <v>0.01154873578103267</v>
       </c>
       <c r="K89">
-        <v>0.01058987392643182</v>
+        <v>0.022991756395831</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3884,22 +3884,22 @@
         <v>0.006660159019433265</v>
       </c>
       <c r="F90">
-        <v>0.002223214843103852</v>
+        <v>0.01111607421551927</v>
       </c>
       <c r="G90">
-        <v>0.001665212239247991</v>
+        <v>0.008326061196239957</v>
       </c>
       <c r="H90">
-        <v>0.01111607421551927</v>
+        <v>0.001452872233643614</v>
       </c>
       <c r="I90">
-        <v>0.008326061196239957</v>
+        <v>0.000894869629787752</v>
       </c>
       <c r="J90">
-        <v>0.006260023700891769</v>
+        <v>0.007264361168218071</v>
       </c>
       <c r="K90">
-        <v>0.005252943220275269</v>
+        <v>0.004474348148938764</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3919,22 +3919,22 @@
         <v>-0.01728297528771128</v>
       </c>
       <c r="F91">
-        <v>-0.002646161938711254</v>
+        <v>-0.01323080969355626</v>
       </c>
       <c r="G91">
-        <v>-0.002736247666509769</v>
+        <v>-0.01368123833254884</v>
       </c>
       <c r="H91">
-        <v>-0.01323080969355626</v>
+        <v>-0.002232082504554161</v>
       </c>
       <c r="I91">
-        <v>-0.01368123833254884</v>
+        <v>-0.002322168232352676</v>
       </c>
       <c r="J91">
-        <v>0.001172325201569931</v>
+        <v>-0.0111604125227708</v>
       </c>
       <c r="K91">
-        <v>0.001009738902830269</v>
+        <v>-0.01161084116176338</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3954,22 +3954,22 @@
         <v>0.06592036379925392</v>
       </c>
       <c r="F92">
-        <v>0.003456913324185062</v>
+        <v>0.01728456662092531</v>
       </c>
       <c r="G92">
-        <v>0.009832975252747256</v>
+        <v>0.04916487626373628</v>
       </c>
       <c r="H92">
-        <v>0.01728456662092531</v>
+        <v>0.002481103700124552</v>
       </c>
       <c r="I92">
-        <v>0.04916487626373628</v>
+        <v>0.008857165628686745</v>
       </c>
       <c r="J92">
-        <v>0.007586931247251566</v>
+        <v>0.01240551850062276</v>
       </c>
       <c r="K92">
-        <v>0.01909441789173261</v>
+        <v>0.04428582814343374</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3989,22 +3989,22 @@
         <v>0.04627386082525148</v>
       </c>
       <c r="F93">
-        <v>0.002288442947982965</v>
+        <v>0.01144221473991483</v>
       </c>
       <c r="G93">
-        <v>0.006982253742739545</v>
+        <v>0.03491126871369772</v>
       </c>
       <c r="H93">
-        <v>0.01144221473991483</v>
+        <v>0.001523619237276864</v>
       </c>
       <c r="I93">
-        <v>0.03491126871369772</v>
+        <v>0.006217430032033443</v>
       </c>
       <c r="J93">
-        <v>0.002835475313587685</v>
+        <v>0.007618096186384319</v>
       </c>
       <c r="K93">
-        <v>0.01130684300693167</v>
+        <v>0.03108715016016721</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4024,22 +4024,22 @@
         <v>0.01760633562986634</v>
       </c>
       <c r="F94">
-        <v>0.001140527932979554</v>
+        <v>0.005702639664897775</v>
       </c>
       <c r="G94">
-        <v>0.002779466210694205</v>
+        <v>0.01389733105347103</v>
       </c>
       <c r="H94">
-        <v>0.005702639664897775</v>
+        <v>0.0007266771679595115</v>
       </c>
       <c r="I94">
-        <v>0.01389733105347103</v>
+        <v>0.002365615445674163</v>
       </c>
       <c r="J94">
-        <v>0.003381573605880352</v>
+        <v>0.003633385839797558</v>
       </c>
       <c r="K94">
-        <v>0.00633952171762071</v>
+        <v>0.01182807722837081</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4059,22 +4059,22 @@
         <v>0.03222308503729313</v>
       </c>
       <c r="F95">
-        <v>0.003672070746518427</v>
+        <v>0.01836035373259214</v>
       </c>
       <c r="G95">
-        <v>0.006164759897811098</v>
+        <v>0.0308237994890555</v>
       </c>
       <c r="H95">
-        <v>0.01836035373259214</v>
+        <v>0.001836856148422331</v>
       </c>
       <c r="I95">
-        <v>0.0308237994890555</v>
+        <v>0.004329545299715003</v>
       </c>
       <c r="J95">
-        <v>-0.02929958528109283</v>
+        <v>0.009184280742111669</v>
       </c>
       <c r="K95">
-        <v>-0.02480079159954971</v>
+        <v>0.02164772649857502</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4094,22 +4094,22 @@
         <v>0.00479449353291526</v>
       </c>
       <c r="F96">
-        <v>-0.0001354044030038571</v>
+        <v>-0.0006770220150193009</v>
       </c>
       <c r="G96">
-        <v>-0.000457713749335173</v>
+        <v>-0.002288568746675877</v>
       </c>
       <c r="H96">
-        <v>-0.0006770220150193009</v>
+        <v>0.0009665051741337481</v>
       </c>
       <c r="I96">
-        <v>-0.002288568746675877</v>
+        <v>0.000644195827802432</v>
       </c>
       <c r="J96">
-        <v>0.010342213294906</v>
+        <v>0.004832525870668748</v>
       </c>
       <c r="K96">
-        <v>0.009760510899312208</v>
+        <v>0.00322097913901216</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4129,22 +4129,22 @@
         <v>-0.1468986271035062</v>
       </c>
       <c r="F97">
-        <v>-0.01857735681968851</v>
+        <v>-0.09288678409844282</v>
       </c>
       <c r="G97">
-        <v>-0.03504139720601369</v>
+        <v>-0.1752069860300686</v>
       </c>
       <c r="H97">
-        <v>-0.09288678409844282</v>
+        <v>-0.003273494358547925</v>
       </c>
       <c r="I97">
-        <v>-0.1752069860300686</v>
+        <v>-0.01973753474487306</v>
       </c>
       <c r="J97">
-        <v>-0.2689260857263191</v>
+        <v>-0.01636747179273949</v>
       </c>
       <c r="K97">
-        <v>-0.2986403085463846</v>
+        <v>-0.09868767372436529</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4164,22 +4164,22 @@
         <v>0.0217513425579032</v>
       </c>
       <c r="F98">
-        <v>0.001865517275492057</v>
+        <v>0.009327586377460286</v>
       </c>
       <c r="G98">
-        <v>0.00338108612632061</v>
+        <v>0.01690543063160304</v>
       </c>
       <c r="H98">
-        <v>0.009327586377460286</v>
+        <v>0.001406976362488854</v>
       </c>
       <c r="I98">
-        <v>0.01690543063160304</v>
+        <v>0.002922545213317406</v>
       </c>
       <c r="J98">
-        <v>0.005068019050277293</v>
+        <v>0.007034881812444273</v>
       </c>
       <c r="K98">
-        <v>0.007803310599372058</v>
+        <v>0.01461272606658703</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4199,22 +4199,22 @@
         <v>0.07022672810605754</v>
       </c>
       <c r="F99">
-        <v>0.001548191423463001</v>
+        <v>0.007740957117315012</v>
       </c>
       <c r="G99">
-        <v>0.009718910452843196</v>
+        <v>0.04859455226421598</v>
       </c>
       <c r="H99">
-        <v>0.007740957117315012</v>
+        <v>0.001265056602718823</v>
       </c>
       <c r="I99">
-        <v>0.04859455226421598</v>
+        <v>0.009435775632099019</v>
       </c>
       <c r="J99">
-        <v>0.009960722738193708</v>
+        <v>0.006325283013594132</v>
       </c>
       <c r="K99">
-        <v>0.02470719809553113</v>
+        <v>0.04717887816049509</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4234,22 +4234,22 @@
         <v>-0.07065237031419958</v>
       </c>
       <c r="F100">
-        <v>-0.01600418231646593</v>
+        <v>-0.08002091158232966</v>
       </c>
       <c r="G100">
-        <v>-0.01509230155746068</v>
+        <v>-0.07546150778730343</v>
       </c>
       <c r="H100">
-        <v>-0.08002091158232966</v>
+        <v>-0.01040484635970873</v>
       </c>
       <c r="I100">
-        <v>-0.07546150778730343</v>
+        <v>-0.009492965600703484</v>
       </c>
       <c r="J100">
-        <v>0.00396886644891464</v>
+        <v>-0.05202423179854361</v>
       </c>
       <c r="K100">
-        <v>0.005614624563120776</v>
+        <v>-0.0474648280035174</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4269,22 +4269,22 @@
         <v>0.2201101435311567</v>
       </c>
       <c r="F101">
-        <v>-0.002432663158865137</v>
+        <v>-0.01216331579432572</v>
       </c>
       <c r="G101">
-        <v>0.02823635573850996</v>
+        <v>0.1411817786925497</v>
       </c>
       <c r="H101">
-        <v>-0.01216331579432572</v>
+        <v>-0.001094667582409615</v>
       </c>
       <c r="I101">
-        <v>0.1411817786925497</v>
+        <v>0.02957435131496546</v>
       </c>
       <c r="J101">
-        <v>0.02249322638733538</v>
+        <v>-0.005473337912048076</v>
       </c>
       <c r="K101">
-        <v>0.07784452775721794</v>
+        <v>0.1478717565748274</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4339,22 +4339,22 @@
         <v>0.01046447321718641</v>
       </c>
       <c r="F103">
-        <v>-0.001628903048257758</v>
+        <v>-0.008144515241288822</v>
       </c>
       <c r="G103">
-        <v>0.0008264851797803858</v>
+        <v>0.004132425898901906</v>
       </c>
       <c r="H103">
-        <v>-0.008144515241288822</v>
+        <v>-0.001049364851349417</v>
       </c>
       <c r="I103">
-        <v>0.004132425898901906</v>
+        <v>0.001406023376688726</v>
       </c>
       <c r="J103">
-        <v>0.01187823130188634</v>
+        <v>-0.005246824256747074</v>
       </c>
       <c r="K103">
-        <v>0.0163097044522007</v>
+        <v>0.007030116883443642</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4374,22 +4374,22 @@
         <v>0.0669276062223295</v>
       </c>
       <c r="F104">
-        <v>0.0009439125619308697</v>
+        <v>0.004719562809654347</v>
       </c>
       <c r="G104">
-        <v>0.00880051037999831</v>
+        <v>0.04400255189999156</v>
       </c>
       <c r="H104">
-        <v>0.004719562809654347</v>
+        <v>0.001135902515333439</v>
       </c>
       <c r="I104">
-        <v>0.04400255189999156</v>
+        <v>0.008992500333400879</v>
       </c>
       <c r="J104">
-        <v>0.004418841020641068</v>
+        <v>0.005679512576667195</v>
       </c>
       <c r="K104">
-        <v>0.01859839189003757</v>
+        <v>0.0449625016670044</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4409,22 +4409,22 @@
         <v>0.01908457588973128</v>
       </c>
       <c r="F105">
-        <v>0.001821762930107832</v>
+        <v>0.009108814650539159</v>
       </c>
       <c r="G105">
-        <v>0.002767473245771203</v>
+        <v>0.01383736622885602</v>
       </c>
       <c r="H105">
-        <v>0.009108814650539159</v>
+        <v>0.00161852385821576</v>
       </c>
       <c r="I105">
-        <v>0.01383736622885602</v>
+        <v>0.002564234173879131</v>
       </c>
       <c r="J105">
-        <v>0.004751442598858686</v>
+        <v>0.008092619291078797</v>
       </c>
       <c r="K105">
-        <v>0.006458256138152254</v>
+        <v>0.01282117086939566</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4456,7 +4456,7 @@
         <v>124</v>
       </c>
       <c r="J106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K106" t="s">
         <v>124</v>
@@ -4479,22 +4479,22 @@
         <v>0.04526268995445259</v>
       </c>
       <c r="F107">
-        <v>0.0006957303705954085</v>
+        <v>0.003478651852977038</v>
       </c>
       <c r="G107">
-        <v>0.005841504795979492</v>
+        <v>0.02920752397989746</v>
       </c>
       <c r="H107">
-        <v>0.003478651852977038</v>
+        <v>0.000935793069409073</v>
       </c>
       <c r="I107">
-        <v>0.02920752397989746</v>
+        <v>0.006081567494793156</v>
       </c>
       <c r="J107">
-        <v>0.005081007475781313</v>
+        <v>0.004678965347045378</v>
       </c>
       <c r="K107">
-        <v>0.01436807700852226</v>
+        <v>0.0304078374739658</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4549,22 +4549,22 @@
         <v>0.01533217458579775</v>
       </c>
       <c r="F109">
-        <v>0.01486349685879603</v>
+        <v>0.07431748429398018</v>
       </c>
       <c r="G109">
-        <v>0.009247074269381815</v>
+        <v>0.04623537134690935</v>
       </c>
       <c r="H109">
-        <v>0.07431748429398018</v>
+        <v>0.007676478115926395</v>
       </c>
       <c r="I109">
-        <v>0.04623537134690935</v>
+        <v>0.002060055526512175</v>
       </c>
       <c r="J109">
-        <v>0.2505831617441214</v>
+        <v>0.03838239057963225</v>
       </c>
       <c r="K109">
-        <v>0.2404466686137889</v>
+        <v>0.01030027763256115</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4584,22 +4584,22 @@
         <v>-0.1044320348302436</v>
       </c>
       <c r="F110">
-        <v>-0.02254206080613431</v>
+        <v>-0.1127103040306716</v>
       </c>
       <c r="G110">
-        <v>-0.02280758805466588</v>
+        <v>-0.1140379402733295</v>
       </c>
       <c r="H110">
-        <v>-0.1127103040306716</v>
+        <v>-0.01376612816297452</v>
       </c>
       <c r="I110">
-        <v>-0.1140379402733295</v>
+        <v>-0.01403165541150609</v>
       </c>
       <c r="J110">
-        <v>0.01437746994477485</v>
+        <v>-0.06883064081487253</v>
       </c>
       <c r="K110">
-        <v>0.01389824761279979</v>
+        <v>-0.07015827705753043</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4619,22 +4619,22 @@
         <v>0.02861057683324377</v>
       </c>
       <c r="F111">
-        <v>-8.812878152352853e-05</v>
+        <v>-0.0004406439076176496</v>
       </c>
       <c r="G111">
-        <v>0.003666457199553875</v>
+        <v>0.01833228599776937</v>
       </c>
       <c r="H111">
-        <v>-0.0004406439076176496</v>
+        <v>8.957693216149612e-05</v>
       </c>
       <c r="I111">
-        <v>0.01833228599776937</v>
+        <v>0.003844162913238898</v>
       </c>
       <c r="J111">
-        <v>0.004307556828273452</v>
+        <v>0.0004478846608074737</v>
       </c>
       <c r="K111">
-        <v>0.01108381598586713</v>
+        <v>0.0192208145661945</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4654,22 +4654,22 @@
         <v>0.0494991097153091</v>
       </c>
       <c r="F112">
-        <v>0.003849555389120994</v>
+        <v>0.01924777694560496</v>
       </c>
       <c r="G112">
-        <v>0.0071094790899419</v>
+        <v>0.03554739544970951</v>
       </c>
       <c r="H112">
-        <v>0.01924777694560496</v>
+        <v>0.003390855936199114</v>
       </c>
       <c r="I112">
-        <v>0.03554739544970951</v>
+        <v>0.006650779637020023</v>
       </c>
       <c r="J112">
-        <v>0.01089639313660381</v>
+        <v>0.01695427968099558</v>
       </c>
       <c r="K112">
-        <v>0.01677988813234377</v>
+        <v>0.03325389818510013</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4689,22 +4689,22 @@
         <v>0.03454445539727858</v>
       </c>
       <c r="F113">
-        <v>-0.002749951859772971</v>
+        <v>-0.01374975929886486</v>
       </c>
       <c r="G113">
-        <v>0.004042987602883765</v>
+        <v>0.02021493801441883</v>
       </c>
       <c r="H113">
-        <v>-0.01374975929886486</v>
+        <v>-0.002151491124503889</v>
       </c>
       <c r="I113">
-        <v>0.02021493801441883</v>
+        <v>0.004641448338152846</v>
       </c>
       <c r="J113">
-        <v>0.005989866173155989</v>
+        <v>-0.01075745562251944</v>
       </c>
       <c r="K113">
-        <v>0.01824973143467769</v>
+        <v>0.02320724169076423</v>
       </c>
     </row>
   </sheetData>
